--- a/IO/Data.xlsx
+++ b/IO/Data.xlsx
@@ -12,10 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Correlation Constants" sheetId="3" r:id="rId1"/>
-    <sheet name="Species Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Correlations" sheetId="5" r:id="rId1"/>
+    <sheet name="Correlation Constants" sheetId="3" r:id="rId2"/>
+    <sheet name="Species Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Tref">'Species Data'!$AS$1</definedName>
+    <definedName name="Tvalid">'Species Data'!$AS$2</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
   <si>
     <t>Species</t>
   </si>
@@ -432,6 +437,63 @@
   <si>
     <t>Behaviour Case</t>
   </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>[Pa]</t>
+  </si>
+  <si>
+    <t>Heat Capacity - Liquid</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Form 1</t>
+  </si>
+  <si>
+    <t>Form 0</t>
+  </si>
+  <si>
+    <t>Heat Capacity - Vapour</t>
+  </si>
+  <si>
+    <t>J/kmol·K</t>
+  </si>
+  <si>
+    <t>Correlation Validation</t>
+  </si>
+  <si>
+    <t>Psat</t>
+  </si>
+  <si>
+    <t>hL</t>
+  </si>
+  <si>
+    <t>Hv</t>
+  </si>
+  <si>
+    <t>[J/mol]</t>
+  </si>
+  <si>
+    <t>Tref</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>t_ref</t>
+  </si>
+  <si>
+    <t>tb_ref</t>
+  </si>
+  <si>
+    <t>Note: The reference temperature should be below the lowest critical temperature</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +505,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,6 +533,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,18 +620,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,6 +654,1524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="646716" cy="600075"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EE3DDC-6ECD-4279-AAA3-8E76EB836BAA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9782175" y="990600"/>
+              <a:ext cx="646716" cy="600075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=1−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑐</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EE3DDC-6ECD-4279-AAA3-8E76EB836BAA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9782175" y="990600"/>
+              <a:ext cx="646716" cy="600075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡=1−𝑇_𝑟</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇_𝑟=𝑇/𝑇_𝑐 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1940724" cy="315792"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74124238-F90C-4E00-B43B-410A8E57EE80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2200275" y="209550"/>
+              <a:ext cx="1940724" cy="315792"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>exp</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>⁡[</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶𝑙𝑛𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74124238-F90C-4E00-B43B-410A8E57EE80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2200275" y="209550"/>
+              <a:ext cx="1940724" cy="315792"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃=exp⁡[𝐴+𝐵/𝑇+𝐶𝑙𝑛𝑇+𝐷𝑇^𝐸]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2106025" cy="185756"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A835BA-8A3E-48A8-8620-34A9DB7E1EAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2990850" y="1295400"/>
+              <a:ext cx="2106025" cy="185756"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐸</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A835BA-8A3E-48A8-8620-34A9DB7E1EAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2990850" y="1295400"/>
+              <a:ext cx="2106025" cy="185756"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐_𝑝𝐿=𝐴+𝐵𝑇+𝐶𝑇^2+𝐷𝑇^3+𝐸𝑇^4</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3229089" cy="438150"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A03B7EF-224F-4DAC-B43B-901C26313F20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5829300" y="1200150"/>
+              <a:ext cx="3229089" cy="438150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴𝐶𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴𝐷</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶𝐷</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐷</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>5</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A03B7EF-224F-4DAC-B43B-901C26313F20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5829300" y="1200150"/>
+              <a:ext cx="3229089" cy="438150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐_𝑝𝐿=𝐴^2/𝑡+𝐵−2𝐴𝐶𝑡−𝐴𝐷𝑡^2−(𝐶^2 𝑡^3)/3−(𝐶𝐷𝑡^4)/2−(𝐷^2 𝑡^5)/5</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1717330" cy="321114"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42A2FBB-35B7-4B20-A08C-0294DFB643A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400300" y="1847850"/>
+              <a:ext cx="1717330" cy="321114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42A2FBB-35B7-4B20-A08C-0294DFB643A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400300" y="1847850"/>
+              <a:ext cx="1717330" cy="321114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑝/𝑅=𝐴+𝐵𝑇+𝐶𝑇^2+𝐷𝑇^(−2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,9 +2471,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -895,34 +2576,34 @@
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1475,12 +3156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AP14"/>
+  <dimension ref="B1:AW14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1499,19 +3180,20 @@
     <col min="34" max="34" width="10.125" customWidth="1"/>
     <col min="35" max="35" width="10.875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.875" customWidth="1"/>
+    <col min="44" max="44" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="S1" s="23" t="s">
+    <row r="1" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="S1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
       <c r="AA1" s="26" t="s">
         <v>44</v>
       </c>
@@ -1532,61 +3214,82 @@
       <c r="AN1" s="26"/>
       <c r="AO1" s="26"/>
       <c r="AP1" s="26"/>
+      <c r="AR1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS1">
+        <v>100</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="C2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="25" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AR2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS2" s="20">
+        <v>373.15</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="2:42" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:49" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1613,65 +3316,72 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="23"/>
       <c r="R3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22" t="s">
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="22"/>
+      <c r="Y3" s="23"/>
       <c r="Z3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22" t="s">
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="22"/>
+      <c r="AG3" s="23"/>
       <c r="AH3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AI3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22" t="s">
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AO3" s="22"/>
+      <c r="AO3" s="23"/>
       <c r="AP3" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="AR3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
     </row>
-    <row r="4" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+    <row r="4" spans="2:49" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1780,9 +3490,27 @@
       <c r="AO4" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="AR4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW4" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="2:42" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+    <row r="5" spans="2:49" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
@@ -1903,8 +3631,26 @@
       <c r="AP5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="AR5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW5" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +3795,32 @@
       <c r="AP6" s="5">
         <v>0</v>
       </c>
+      <c r="AR6">
+        <f>EXP(K6+L6/Tvalid+M6*LN(Tvalid)+N6*Tvalid^O6)</f>
+        <v>16184812.503641797</v>
+      </c>
+      <c r="AS6" t="e">
+        <f>-(1/1000)*G6*((S6^2)*LN(AU6/AV6)+T6*(AU6-AV6)-S6*U6*(AU6^2-AV6^2)-(1/3)*S6*V6*(AU6^3-AV6^3)-(1/12)*(U6^2)*(AU6^4-AV6^4)-(1/10)*U6*V6*(AU6^5-AV6^5)-(1/30)*(V6^2)*(AU6^6-AV6^6))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AT6">
+        <f>-(1/1000)*G6*((S6^2)*LN(AW6/AV6)+T6*(AW6-AV6)-S6*U6*(AW6^2-AV6^2)-(1/3)*S6*V6*(AW6^3-AV6^3)-(1/12)*(U6^2)*(AW6^4-AV6^4)-(1/10)*U6*V6*(AW6^5-AV6^5)-(1/30)*(V6^2)*(AW6^6-AV6^6))+E6*1000+8.314*(AA6*(Tvalid-D6)+(1/2)*AB6*(Tvalid^2-D6^2)+(1/3)*AC6*(Tvalid^3-D6^3)-AD6*(Tvalid^-1-D6^-1))</f>
+        <v>30084.400291466096</v>
+      </c>
+      <c r="AU6">
+        <f>1-Tvalid/G6</f>
+        <v>-0.22224041925974447</v>
+      </c>
+      <c r="AV6">
+        <f>1-Tref/G6</f>
+        <v>0.6724533245987554</v>
+      </c>
+      <c r="AW6">
+        <f>1-D6/G6</f>
+        <v>0.39534883720930236</v>
+      </c>
     </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +3965,32 @@
       <c r="AP7" s="2">
         <v>0</v>
       </c>
+      <c r="AR7">
+        <f>EXP(K7+L7/Tvalid+M7*LN(Tvalid)+N7*Tvalid^O7)</f>
+        <v>591871.9545038793</v>
+      </c>
+      <c r="AS7">
+        <f>(1/1000)*(S7*(Tvalid-Tref)+(1/2)*T7*(Tvalid^2-Tref^2)+(1/3)*U7*(Tvalid^3-Tref^3)+(1/4)*V7*(Tvalid^4-Tref^4)+(1/5)*W7*(Tvalid^5-Tref^5))</f>
+        <v>42880.139180977021</v>
+      </c>
+      <c r="AT7">
+        <f>(1/1000)*(S7*(D7-Tref)+(1/2)*T7*(D7^2-Tref^2)+(1/3)*U7*(D7^3-Tref^3)+(1/4)*V7*(D7^4-Tref^4)+(1/5)*W7*(D7^5-Tref^5))+E7*1000+8.314*(AA7*(Tvalid-D7)+(1/2)*AB7*(Tvalid^2-D7^2)+(1/3)*AC7*(Tvalid^3-D7^3)-AD7*(Tvalid^-1-D7^-1))</f>
+        <v>65654.482047438854</v>
+      </c>
+      <c r="AU7">
+        <f>1-Tvalid/G7</f>
+        <v>0.20555673834362365</v>
+      </c>
+      <c r="AV7">
+        <f>1-Tref/G7</f>
+        <v>0.78709814775388542</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" ref="AW7:AW11" si="1">1-D7/G7</f>
+        <v>0.34170747285501379</v>
+      </c>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2341,8 +4135,32 @@
       <c r="AP8" s="2">
         <v>0</v>
       </c>
+      <c r="AR8">
+        <f>EXP(K8+L8/Tvalid+M8*LN(Tvalid)+N8*Tvalid^O8)</f>
+        <v>244212.2832816595</v>
+      </c>
+      <c r="AS8">
+        <f>(1/1000)*(S8*(Tvalid-Tref)+(1/2)*T8*(Tvalid^2-Tref^2)+(1/3)*U8*(Tvalid^3-Tref^3)+(1/4)*V8*(Tvalid^4-Tref^4)+(1/5)*W8*(Tvalid^5-Tref^5))</f>
+        <v>50210.912994763195</v>
+      </c>
+      <c r="AT8">
+        <f>(1/1000)*(S8*(D8-Tref)+(1/2)*T8*(D8^2-Tref^2)+(1/3)*U8*(D8^3-Tref^3)+(1/4)*V8*(D8^4-Tref^4)+(1/5)*W8*(D8^5-Tref^5))+E8*1000+8.314*(AA8*(Tvalid-D8)+(1/2)*AB8*(Tvalid^2-D8^2)+(1/3)*AC8*(Tvalid^3-D8^3)-AD8*(Tvalid^-1-D8^-1))</f>
+        <v>77341.594053981171</v>
+      </c>
+      <c r="AU8">
+        <f>1-Tvalid/G8</f>
+        <v>0.26487391646966119</v>
+      </c>
+      <c r="AV8">
+        <f>1-Tref/G8</f>
+        <v>0.80299448384554772</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="1"/>
+        <v>0.32643814026792761</v>
+      </c>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2487,8 +4305,32 @@
       <c r="AP9" s="2">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <f>EXP(K9+L9/Tvalid+M9*LN(Tvalid)+N9*Tvalid^O9)</f>
+        <v>174590.04912476955</v>
+      </c>
+      <c r="AS9">
+        <f>(1/1000)*(S9*(Tvalid-Tref)+(1/2)*T9*(Tvalid^2-Tref^2)+(1/3)*U9*(Tvalid^3-Tref^3)+(1/4)*V9*(Tvalid^4-Tref^4)+(1/5)*W9*(Tvalid^5-Tref^5))</f>
+        <v>32747.387295908542</v>
+      </c>
+      <c r="AT9">
+        <f>(1/1000)*(S9*(D9-Tref)+(1/2)*T9*(D9^2-Tref^2)+(1/3)*U9*(D9^3-Tref^3)+(1/4)*V9*(D9^4-Tref^4)+(1/5)*W9*(D9^5-Tref^5))+E9*1000+8.314*(AA9*(Tvalid-D9)+(1/2)*AB9*(Tvalid^2-D9^2)+(1/3)*AC9*(Tvalid^3-D9^3)-AD9*(Tvalid^-1-D9^-1))</f>
+        <v>61772.128293118287</v>
+      </c>
+      <c r="AU9">
+        <f>1-Tvalid/G9</f>
+        <v>0.3259573699421966</v>
+      </c>
+      <c r="AV9">
+        <f>1-Tref/G9</f>
+        <v>0.81936416184971095</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="1"/>
+        <v>0.36072976878612728</v>
+      </c>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -2633,8 +4475,32 @@
       <c r="AP10" s="2">
         <v>0</v>
       </c>
+      <c r="AR10">
+        <f>EXP(K10+L10/Tvalid+M10*LN(Tvalid)+N10*Tvalid^O10)</f>
+        <v>101260.56298096628</v>
+      </c>
+      <c r="AS10">
+        <f>(1/1000)*(S10*(Tvalid-Tref)+(1/2)*T10*(Tvalid^2-Tref^2)+(1/3)*U10*(Tvalid^3-Tref^3)+(1/4)*V10*(Tvalid^4-Tref^4)+(1/5)*W10*(Tvalid^5-Tref^5))</f>
+        <v>23909.468597613795</v>
+      </c>
+      <c r="AT10">
+        <f>(1/1000)*(S10*(D10-Tref)+(1/2)*T10*(D10^2-Tref^2)+(1/3)*U10*(D10^3-Tref^3)+(1/4)*V10*(D10^4-Tref^4)+(1/5)*W10*(D10^5-Tref^5))+E10*1000+8.314*(AA10*(Tvalid-D10)+(1/2)*AB10*(Tvalid^2-D10^2)+(1/3)*AC10*(Tvalid^3-D10^3)-AD10*(Tvalid^-1-D10^-1))</f>
+        <v>64707.626599378316</v>
+      </c>
+      <c r="AU10">
+        <f>1-Tvalid/G10</f>
+        <v>0.42335033225158403</v>
+      </c>
+      <c r="AV10">
+        <f>1-Tref/G10</f>
+        <v>0.84546437953948383</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="1"/>
+        <v>0.42327306444135382</v>
+      </c>
     </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -2779,8 +4645,32 @@
       <c r="AP11" s="2">
         <v>0</v>
       </c>
+      <c r="AR11">
+        <f>EXP(K11+L11/Tvalid+M11*LN(Tvalid)+N11*Tvalid^O11)</f>
+        <v>6564942187.6437111</v>
+      </c>
+      <c r="AS11">
+        <f>(1/1000)*(S11*(Tvalid-Tref)+(1/2)*T11*(Tvalid^2-Tref^2)+(1/3)*U11*(Tvalid^3-Tref^3)+(1/4)*V11*(Tvalid^4-Tref^4)+(1/5)*W11*(Tvalid^5-Tref^5))</f>
+        <v>3622551.3474948504</v>
+      </c>
+      <c r="AT11">
+        <f>(1/1000)*(S11*(D11-Tref)+(1/2)*T11*(D11^2-Tref^2)+(1/3)*U11*(D11^3-Tref^3)+(1/4)*V11*(D11^4-Tref^4)+(1/5)*W11*(D11^5-Tref^5))+E11*1000+8.314*(AA11*(Tvalid-D11)+(1/2)*AB11*(Tvalid^2-D11^2)+(1/3)*AC11*(Tvalid^3-D11^3)-AD11*(Tvalid^-1-D11^-1))</f>
+        <v>12945.950780900417</v>
+      </c>
+      <c r="AU11">
+        <f>1-Tvalid/G11</f>
+        <v>-1.9568145800316956</v>
+      </c>
+      <c r="AV11">
+        <f>1-Tref/G11</f>
+        <v>0.20760697305863707</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="1"/>
+        <v>0.38748019017432656</v>
+      </c>
     </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="14"/>
@@ -2789,25 +4679,17 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AI1:AP1"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
+  <mergeCells count="18">
+    <mergeCell ref="AR3:AV3"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="S3:W3"/>
@@ -2817,17 +4699,25 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="K2:R2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AI1:AP1"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/IO/Data.xlsx
+++ b/IO/Data.xlsx
@@ -560,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,9 +608,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,25 +617,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +663,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="646716" cy="600075"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -849,7 +846,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -924,8 +921,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1940724" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1101,7 +1098,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1166,8 +1163,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2106025" cy="185756"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1384,7 +1381,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1449,8 +1446,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3229089" cy="438150"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1849,7 +1846,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1914,8 +1911,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1717330" cy="321114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2114,7 +2111,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3160,8 +3157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AU15" sqref="AU15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3184,36 +3182,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="26" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
       <c r="AR1" t="s">
         <v>91</v>
       </c>
@@ -3223,73 +3221,73 @@
       <c r="AT1" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AU1" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="25" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
       <c r="AR2" t="s">
         <v>77</v>
       </c>
-      <c r="AS2" s="20">
+      <c r="AS2" s="19">
         <v>373.15</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AT2" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3372,16 +3370,17 @@
       <c r="AP3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="28" t="s">
+      <c r="AR3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
     </row>
     <row r="4" spans="2:49" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3490,27 +3489,27 @@
       <c r="AO4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AR4" s="19" t="s">
+      <c r="AR4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AS4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AT4" s="19" t="s">
+      <c r="AT4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AU4" s="19" t="s">
+      <c r="AU4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AV4" s="19" t="s">
+      <c r="AV4" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="AW4" s="19" t="s">
+      <c r="AW4" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:49" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3631,22 +3630,22 @@
       <c r="AP5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="22" t="s">
+      <c r="AR5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AS5" s="22" t="s">
+      <c r="AS5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AT5" s="22" t="s">
+      <c r="AT5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AU5" s="22" t="s">
+      <c r="AU5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AV5" s="22" t="s">
+      <c r="AV5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AW5" s="22" t="s">
+      <c r="AW5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3796,8 +3795,8 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <f>EXP(K6+L6/Tvalid+M6*LN(Tvalid)+N6*Tvalid^O6)</f>
-        <v>16184812.503641797</v>
+        <f>EXP(K6+L6/Tvalid+M6*LN(Tvalid)+N6*Tvalid^O6)/100000</f>
+        <v>161.84812503641797</v>
       </c>
       <c r="AS6" t="e">
         <f>-(1/1000)*G6*((S6^2)*LN(AU6/AV6)+T6*(AU6-AV6)-S6*U6*(AU6^2-AV6^2)-(1/3)*S6*V6*(AU6^3-AV6^3)-(1/12)*(U6^2)*(AU6^4-AV6^4)-(1/10)*U6*V6*(AU6^5-AV6^5)-(1/30)*(V6^2)*(AU6^6-AV6^6))</f>
@@ -3808,11 +3807,11 @@
         <v>30084.400291466096</v>
       </c>
       <c r="AU6">
-        <f>1-Tvalid/G6</f>
+        <f t="shared" ref="AU6:AU11" si="0">1-Tvalid/G6</f>
         <v>-0.22224041925974447</v>
       </c>
       <c r="AV6">
-        <f>1-Tref/G6</f>
+        <f t="shared" ref="AV6:AV11" si="1">1-Tref/G6</f>
         <v>0.6724533245987554</v>
       </c>
       <c r="AW6">
@@ -3831,7 +3830,7 @@
         <v>309.2</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:E11" si="0">(1/1000000)*AI7*(1-D7/G7)^(AJ7+AK7*(D7/G7)+AL7*(D7/G7)^2)</f>
+        <f t="shared" ref="E7:E11" si="2">(1/1000000)*AI7*(1-D7/G7)^(AJ7+AK7*(D7/G7)+AL7*(D7/G7)^2)</f>
         <v>25.816038463315916</v>
       </c>
       <c r="F7" s="13">
@@ -3966,8 +3965,8 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <f>EXP(K7+L7/Tvalid+M7*LN(Tvalid)+N7*Tvalid^O7)</f>
-        <v>591871.9545038793</v>
+        <f>EXP(K7+L7/Tvalid+M7*LN(Tvalid)+N7*Tvalid^O7)/100000</f>
+        <v>5.9187195450387931</v>
       </c>
       <c r="AS7">
         <f>(1/1000)*(S7*(Tvalid-Tref)+(1/2)*T7*(Tvalid^2-Tref^2)+(1/3)*U7*(Tvalid^3-Tref^3)+(1/4)*V7*(Tvalid^4-Tref^4)+(1/5)*W7*(Tvalid^5-Tref^5))</f>
@@ -3978,15 +3977,15 @@
         <v>65654.482047438854</v>
       </c>
       <c r="AU7">
-        <f>1-Tvalid/G7</f>
+        <f t="shared" si="0"/>
         <v>0.20555673834362365</v>
       </c>
       <c r="AV7">
-        <f>1-Tref/G7</f>
+        <f t="shared" si="1"/>
         <v>0.78709814775388542</v>
       </c>
       <c r="AW7">
-        <f t="shared" ref="AW7:AW11" si="1">1-D7/G7</f>
+        <f t="shared" ref="AW7:AW11" si="3">1-D7/G7</f>
         <v>0.34170747285501379</v>
       </c>
     </row>
@@ -4001,7 +4000,7 @@
         <v>341.9</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.784708692638056</v>
       </c>
       <c r="F8" s="13">
@@ -4136,8 +4135,8 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <f>EXP(K8+L8/Tvalid+M8*LN(Tvalid)+N8*Tvalid^O8)</f>
-        <v>244212.2832816595</v>
+        <f>EXP(K8+L8/Tvalid+M8*LN(Tvalid)+N8*Tvalid^O8)/100000</f>
+        <v>2.4421228328165951</v>
       </c>
       <c r="AS8">
         <f>(1/1000)*(S8*(Tvalid-Tref)+(1/2)*T8*(Tvalid^2-Tref^2)+(1/3)*U8*(Tvalid^3-Tref^3)+(1/4)*V8*(Tvalid^4-Tref^4)+(1/5)*W8*(Tvalid^5-Tref^5))</f>
@@ -4148,15 +4147,15 @@
         <v>77341.594053981171</v>
       </c>
       <c r="AU8">
-        <f>1-Tvalid/G8</f>
+        <f t="shared" si="0"/>
         <v>0.26487391646966119</v>
       </c>
       <c r="AV8">
-        <f>1-Tref/G8</f>
+        <f t="shared" si="1"/>
         <v>0.80299448384554772</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.32643814026792761</v>
       </c>
     </row>
@@ -4171,7 +4170,7 @@
         <v>353.9</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29.899603719140696</v>
       </c>
       <c r="F9" s="13">
@@ -4306,8 +4305,8 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <f>EXP(K9+L9/Tvalid+M9*LN(Tvalid)+N9*Tvalid^O9)</f>
-        <v>174590.04912476955</v>
+        <f>EXP(K9+L9/Tvalid+M9*LN(Tvalid)+N9*Tvalid^O9)/100000</f>
+        <v>1.7459004912476954</v>
       </c>
       <c r="AS9">
         <f>(1/1000)*(S9*(Tvalid-Tref)+(1/2)*T9*(Tvalid^2-Tref^2)+(1/3)*U9*(Tvalid^3-Tref^3)+(1/4)*V9*(Tvalid^4-Tref^4)+(1/5)*W9*(Tvalid^5-Tref^5))</f>
@@ -4318,15 +4317,15 @@
         <v>61772.128293118287</v>
       </c>
       <c r="AU9">
-        <f>1-Tvalid/G9</f>
+        <f t="shared" si="0"/>
         <v>0.3259573699421966</v>
       </c>
       <c r="AV9">
-        <f>1-Tref/G9</f>
+        <f t="shared" si="1"/>
         <v>0.81936416184971095</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.36072976878612728</v>
       </c>
     </row>
@@ -4341,7 +4340,7 @@
         <v>373.2</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40.796060811451134</v>
       </c>
       <c r="F10" s="13">
@@ -4476,8 +4475,8 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <f>EXP(K10+L10/Tvalid+M10*LN(Tvalid)+N10*Tvalid^O10)</f>
-        <v>101260.56298096628</v>
+        <f>EXP(K10+L10/Tvalid+M10*LN(Tvalid)+N10*Tvalid^O10)/100000</f>
+        <v>1.0126056298096628</v>
       </c>
       <c r="AS10">
         <f>(1/1000)*(S10*(Tvalid-Tref)+(1/2)*T10*(Tvalid^2-Tref^2)+(1/3)*U10*(Tvalid^3-Tref^3)+(1/4)*V10*(Tvalid^4-Tref^4)+(1/5)*W10*(Tvalid^5-Tref^5))</f>
@@ -4488,15 +4487,15 @@
         <v>64707.626599378316</v>
       </c>
       <c r="AU10">
-        <f>1-Tvalid/G10</f>
+        <f t="shared" si="0"/>
         <v>0.42335033225158403</v>
       </c>
       <c r="AV10">
-        <f>1-Tref/G10</f>
+        <f t="shared" si="1"/>
         <v>0.84546437953948383</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42327306444135382</v>
       </c>
     </row>
@@ -4511,7 +4510,7 @@
         <v>77.3</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.5699118113163619</v>
       </c>
       <c r="F11" s="13">
@@ -4646,8 +4645,8 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <f>EXP(K11+L11/Tvalid+M11*LN(Tvalid)+N11*Tvalid^O11)</f>
-        <v>6564942187.6437111</v>
+        <f>EXP(K11+L11/Tvalid+M11*LN(Tvalid)+N11*Tvalid^O11)/100000</f>
+        <v>65649.421876437118</v>
       </c>
       <c r="AS11">
         <f>(1/1000)*(S11*(Tvalid-Tref)+(1/2)*T11*(Tvalid^2-Tref^2)+(1/3)*U11*(Tvalid^3-Tref^3)+(1/4)*V11*(Tvalid^4-Tref^4)+(1/5)*W11*(Tvalid^5-Tref^5))</f>
@@ -4658,15 +4657,15 @@
         <v>12945.950780900417</v>
       </c>
       <c r="AU11">
-        <f>1-Tvalid/G11</f>
+        <f t="shared" si="0"/>
         <v>-1.9568145800316956</v>
       </c>
       <c r="AV11">
-        <f>1-Tref/G11</f>
+        <f t="shared" si="1"/>
         <v>0.20760697305863707</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.38748019017432656</v>
       </c>
     </row>
@@ -4689,16 +4688,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="K2:R2"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="AA2:AH2"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="AI3:AM3"/>
@@ -4707,6 +4705,7 @@
     <mergeCell ref="AA1:AH1"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AR3:AW3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4714,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4772,15 +4771,15 @@
         <v>55</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18"/>
       <c r="I2" s="16" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
@@ -4791,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="16">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="D3" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
@@ -4814,498 +4813,584 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>22</v>
+      </c>
+      <c r="X4">
+        <v>23</v>
+      </c>
+      <c r="Y4">
+        <v>24</v>
+      </c>
+      <c r="Z4">
+        <v>25</v>
+      </c>
+      <c r="AA4">
+        <v>26</v>
+      </c>
+      <c r="AB4">
+        <v>27</v>
+      </c>
+      <c r="AC4">
+        <v>28</v>
+      </c>
+      <c r="AD4">
+        <v>29</v>
+      </c>
+      <c r="AE4">
+        <v>30</v>
+      </c>
+      <c r="AF4">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+    </row>
+    <row r="6" spans="1:40" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="I6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="J6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>14</v>
-      </c>
-      <c r="P5">
-        <v>15</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
-      </c>
-      <c r="R5">
-        <v>17</v>
-      </c>
-      <c r="S5">
-        <v>18</v>
-      </c>
-      <c r="T5">
-        <v>19</v>
-      </c>
-      <c r="U5">
-        <v>20</v>
-      </c>
-      <c r="V5">
-        <v>21</v>
-      </c>
-      <c r="W5">
-        <v>22</v>
-      </c>
-      <c r="X5">
-        <v>23</v>
-      </c>
-      <c r="Y5">
-        <v>24</v>
-      </c>
-      <c r="Z5">
-        <v>25</v>
-      </c>
-      <c r="AA5">
-        <v>26</v>
-      </c>
-      <c r="AB5">
-        <v>27</v>
-      </c>
-      <c r="AC5">
-        <v>28</v>
-      </c>
-      <c r="AD5">
-        <v>29</v>
-      </c>
-      <c r="AE5">
-        <v>30</v>
-      </c>
-      <c r="AF5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-    </row>
-    <row r="7" spans="1:40" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="U8" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="V8" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="W8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="X8" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>16</v>
       </c>
       <c r="Z8" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="AB8" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>16</v>
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>30.07</v>
+      </c>
+      <c r="C9">
+        <v>184.6</v>
+      </c>
+      <c r="D9">
+        <v>14.624985576079146</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>305.3</v>
+      </c>
+      <c r="G9">
+        <v>48.72</v>
+      </c>
+      <c r="H9">
+        <v>145.5</v>
+      </c>
+      <c r="I9">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="J9">
+        <v>51.856999999999999</v>
+      </c>
+      <c r="K9">
+        <v>-2598.6999999999998</v>
+      </c>
+      <c r="L9">
+        <v>-5.1283000000000003</v>
+      </c>
+      <c r="M9">
+        <v>1.4912999999999999E-5</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>90.35</v>
+      </c>
+      <c r="P9">
+        <v>305.32</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>44.009</v>
+      </c>
+      <c r="S9">
+        <v>89718</v>
+      </c>
+      <c r="T9">
+        <v>918.77</v>
+      </c>
+      <c r="U9">
+        <v>-1886</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>92</v>
+      </c>
+      <c r="X9">
+        <v>290</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1.131</v>
+      </c>
+      <c r="AA9">
+        <v>1.9225000000000003E-2</v>
+      </c>
+      <c r="AB9">
+        <v>-5.5609999999999998E-6</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>298</v>
+      </c>
+      <c r="AE9">
+        <v>1500</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>30.07</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="C10">
-        <v>184.6</v>
+        <v>309.2</v>
       </c>
       <c r="D10">
-        <v>14.624985576079146</v>
+        <v>25.816038463315916</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0.252</v>
       </c>
       <c r="F10">
-        <v>305.3</v>
+        <v>469.7</v>
       </c>
       <c r="G10">
-        <v>48.72</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="H10">
-        <v>145.5</v>
+        <v>313</v>
       </c>
       <c r="I10">
-        <v>0.27900000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="J10">
-        <v>51.856999999999999</v>
+        <v>78.741</v>
       </c>
       <c r="K10">
-        <v>-2598.6999999999998</v>
+        <v>-5420.3</v>
       </c>
       <c r="L10">
-        <v>-5.1283000000000003</v>
+        <v>-8.8253000000000004</v>
       </c>
       <c r="M10">
-        <v>1.4912999999999999E-5</v>
+        <v>9.6170999999999998E-6</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>90.35</v>
+        <v>143.41999999999999</v>
       </c>
       <c r="P10">
-        <v>305.32</v>
+        <v>469.7</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>44.009</v>
+        <v>159080</v>
       </c>
       <c r="S10">
-        <v>89718</v>
+        <v>-270.5</v>
       </c>
       <c r="T10">
-        <v>918.77</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="U10">
-        <v>-1886</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>92</v>
+        <v>143.41999999999999</v>
       </c>
       <c r="X10">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1.131</v>
+        <v>2.464</v>
       </c>
       <c r="AA10">
-        <v>1.9225000000000003E-2</v>
+        <v>4.5351000000000002E-2</v>
       </c>
       <c r="AB10">
-        <v>-5.5609999999999998E-6</v>
+        <v>-1.4110999999999999E-5</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -5322,64 +5407,64 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>72.150000000000006</v>
+        <v>86.177000000000007</v>
       </c>
       <c r="C11">
-        <v>309.2</v>
+        <v>341.9</v>
       </c>
       <c r="D11">
-        <v>25.816038463315916</v>
+        <v>28.784708692638056</v>
       </c>
       <c r="E11">
-        <v>0.252</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="F11">
-        <v>469.7</v>
+        <v>507.6</v>
       </c>
       <c r="G11">
-        <v>33.700000000000003</v>
+        <v>30.25</v>
       </c>
       <c r="H11">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="I11">
-        <v>0.27</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="J11">
-        <v>78.741</v>
+        <v>104.65</v>
       </c>
       <c r="K11">
-        <v>-5420.3</v>
+        <v>-6995.5</v>
       </c>
       <c r="L11">
-        <v>-8.8253000000000004</v>
+        <v>-12.702</v>
       </c>
       <c r="M11">
-        <v>9.6170999999999998E-6</v>
+        <v>1.2381000000000001E-5</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>143.41999999999999</v>
+        <v>177.83</v>
       </c>
       <c r="P11">
-        <v>469.7</v>
+        <v>507.6</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>159080</v>
+        <v>172120</v>
       </c>
       <c r="S11">
-        <v>-270.5</v>
+        <v>-183.78</v>
       </c>
       <c r="T11">
-        <v>0.99536999999999998</v>
+        <v>0.88734000000000002</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -5388,22 +5473,22 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>143.41999999999999</v>
+        <v>177.83</v>
       </c>
       <c r="X11">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>2.464</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="AA11">
-        <v>4.5351000000000002E-2</v>
+        <v>5.3722000000000006E-2</v>
       </c>
       <c r="AB11">
-        <v>-1.4110999999999999E-5</v>
+        <v>-1.6790999999999999E-5</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -5420,88 +5505,88 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>86.177000000000007</v>
+        <v>84.161000000000001</v>
       </c>
       <c r="C12">
-        <v>341.9</v>
+        <v>353.9</v>
       </c>
       <c r="D12">
-        <v>28.784708692638056</v>
+        <v>29.899603719140696</v>
       </c>
       <c r="E12">
-        <v>0.30099999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="F12">
-        <v>507.6</v>
+        <v>553.6</v>
       </c>
       <c r="G12">
-        <v>30.25</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="H12">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="I12">
-        <v>0.26600000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="J12">
-        <v>104.65</v>
+        <v>51.087000000000003</v>
       </c>
       <c r="K12">
-        <v>-6995.5</v>
+        <v>-5226.3999999999996</v>
       </c>
       <c r="L12">
-        <v>-12.702</v>
+        <v>-4.2278000000000002</v>
       </c>
       <c r="M12">
-        <v>1.2381000000000001E-5</v>
+        <v>9.7454000000000005E-18</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>177.83</v>
+        <v>279.69</v>
       </c>
       <c r="P12">
-        <v>507.6</v>
+        <v>553.79999999999995</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>172120</v>
+        <v>-220600</v>
       </c>
       <c r="S12">
-        <v>-183.78</v>
+        <v>3118.3</v>
       </c>
       <c r="T12">
-        <v>0.88734000000000002</v>
+        <v>-9.4215999999999998</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.0687E-2</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>177.83</v>
+        <v>279.69</v>
       </c>
       <c r="X12">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>3.0249999999999999</v>
+        <v>-3.8759999999999999</v>
       </c>
       <c r="AA12">
-        <v>5.3722000000000006E-2</v>
+        <v>6.3249E-2</v>
       </c>
       <c r="AB12">
-        <v>-1.6790999999999999E-5</v>
+        <v>-2.0928E-5</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -5518,97 +5603,97 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>84.161000000000001</v>
+        <v>18.015000000000001</v>
       </c>
       <c r="C13">
-        <v>353.9</v>
+        <v>373.2</v>
       </c>
       <c r="D13">
-        <v>29.899603719140696</v>
+        <v>40.796060811451134</v>
       </c>
       <c r="E13">
-        <v>0.21</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F13">
-        <v>553.6</v>
+        <v>647.1</v>
       </c>
       <c r="G13">
-        <v>40.729999999999997</v>
+        <v>220.55</v>
       </c>
       <c r="H13">
-        <v>308</v>
+        <v>55.9</v>
       </c>
       <c r="I13">
-        <v>0.27300000000000002</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="J13">
-        <v>51.087000000000003</v>
+        <v>73.649000000000001</v>
       </c>
       <c r="K13">
-        <v>-5226.3999999999996</v>
+        <v>-7258.2</v>
       </c>
       <c r="L13">
-        <v>-4.2278000000000002</v>
+        <v>-7.3037000000000001</v>
       </c>
       <c r="M13">
-        <v>9.7454000000000005E-18</v>
+        <v>4.1652999999999997E-6</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>279.69</v>
+        <v>273.16000000000003</v>
       </c>
       <c r="P13">
-        <v>553.79999999999995</v>
+        <v>647.096</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>-220600</v>
+        <v>276370</v>
       </c>
       <c r="S13">
-        <v>3118.3</v>
+        <v>-2090.1</v>
       </c>
       <c r="T13">
-        <v>-9.4215999999999998</v>
+        <v>8.125</v>
       </c>
       <c r="U13">
-        <v>1.0687E-2</v>
+        <v>-1.4116E-2</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>9.3701000000000003E-6</v>
       </c>
       <c r="W13">
-        <v>279.69</v>
+        <v>273.16000000000003</v>
       </c>
       <c r="X13">
-        <v>400</v>
+        <v>533.15</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-3.8759999999999999</v>
+        <v>3.47</v>
       </c>
       <c r="AA13">
-        <v>6.3249E-2</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="AB13">
-        <v>-2.0928E-5</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="AD13">
         <v>298</v>
       </c>
       <c r="AE13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -5616,91 +5701,91 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>18.015000000000001</v>
+        <v>28.013999999999999</v>
       </c>
       <c r="C14">
-        <v>373.2</v>
+        <v>77.3</v>
       </c>
       <c r="D14">
-        <v>40.796060811451134</v>
+        <v>5.5699118113163619</v>
       </c>
       <c r="E14">
-        <v>0.34499999999999997</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F14">
-        <v>647.1</v>
+        <v>126.2</v>
       </c>
       <c r="G14">
-        <v>220.55</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>55.9</v>
+        <v>89.2</v>
       </c>
       <c r="I14">
-        <v>0.22900000000000001</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="J14">
-        <v>73.649000000000001</v>
+        <v>58.281999999999996</v>
       </c>
       <c r="K14">
-        <v>-7258.2</v>
+        <v>-1084.0999999999999</v>
       </c>
       <c r="L14">
-        <v>-7.3037000000000001</v>
+        <v>-8.3143999999999991</v>
       </c>
       <c r="M14">
-        <v>4.1652999999999997E-6</v>
+        <v>4.4127E-2</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>273.16000000000003</v>
+        <v>63.15</v>
       </c>
       <c r="P14">
-        <v>647.096</v>
+        <v>126.2</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>276370</v>
+        <v>281970</v>
       </c>
       <c r="S14">
-        <v>-2090.1</v>
+        <v>-12281</v>
       </c>
       <c r="T14">
-        <v>8.125</v>
+        <v>248</v>
       </c>
       <c r="U14">
-        <v>-1.4116E-2</v>
+        <v>-2.2181999999999999</v>
       </c>
       <c r="V14">
-        <v>9.3701000000000003E-6</v>
+        <v>7.4901999999999998E-3</v>
       </c>
       <c r="W14">
-        <v>273.16000000000003</v>
+        <v>63.15</v>
       </c>
       <c r="X14">
-        <v>533.15</v>
+        <v>0.55930000000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>3.47</v>
+        <v>3.28</v>
       </c>
       <c r="AA14">
-        <v>1.4499999999999999E-3</v>
+        <v>5.9299999999999999E-4</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>12100</v>
+        <v>4000</v>
       </c>
       <c r="AD14">
         <v>298</v>
@@ -5709,104 +5794,6 @@
         <v>2000</v>
       </c>
       <c r="AF14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>28.013999999999999</v>
-      </c>
-      <c r="C15">
-        <v>77.3</v>
-      </c>
-      <c r="D15">
-        <v>5.5699118113163619</v>
-      </c>
-      <c r="E15">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F15">
-        <v>126.2</v>
-      </c>
-      <c r="G15">
-        <v>34</v>
-      </c>
-      <c r="H15">
-        <v>89.2</v>
-      </c>
-      <c r="I15">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J15">
-        <v>58.281999999999996</v>
-      </c>
-      <c r="K15">
-        <v>-1084.0999999999999</v>
-      </c>
-      <c r="L15">
-        <v>-8.3143999999999991</v>
-      </c>
-      <c r="M15">
-        <v>4.4127E-2</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>63.15</v>
-      </c>
-      <c r="P15">
-        <v>126.2</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>281970</v>
-      </c>
-      <c r="S15">
-        <v>-12281</v>
-      </c>
-      <c r="T15">
-        <v>248</v>
-      </c>
-      <c r="U15">
-        <v>-2.2181999999999999</v>
-      </c>
-      <c r="V15">
-        <v>7.4901999999999998E-3</v>
-      </c>
-      <c r="W15">
-        <v>63.15</v>
-      </c>
-      <c r="X15">
-        <v>0.55930000000000002</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>3.28</v>
-      </c>
-      <c r="AA15">
-        <v>5.9299999999999999E-4</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>4000</v>
-      </c>
-      <c r="AD15">
-        <v>298</v>
-      </c>
-      <c r="AE15">
-        <v>2000</v>
-      </c>
-      <c r="AF15">
         <v>0</v>
       </c>
     </row>

--- a/IO/Data.xlsx
+++ b/IO/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\University\Term 13 - Fall 2017\CHG4343\Project\Code\IO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\eclipse-workspace\CHG4343 - Project - Flash Separation\src\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,8 @@
     <sheet name="Correlations" sheetId="5" r:id="rId1"/>
     <sheet name="Correlation Constants" sheetId="3" r:id="rId2"/>
     <sheet name="Species Data" sheetId="1" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Constants" sheetId="4" r:id="rId4"/>
+    <sheet name="Input" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Tref">'Species Data'!$AS$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
   <si>
     <t>Species</t>
   </si>
@@ -333,19 +334,7 @@
     <t>[g/mol]</t>
   </si>
   <si>
-    <t>Flowrate</t>
-  </si>
-  <si>
     <t>Mole Fraction</t>
-  </si>
-  <si>
-    <t>[mol/s]</t>
-  </si>
-  <si>
-    <t>Tank Pressure</t>
-  </si>
-  <si>
-    <t>[°C]</t>
   </si>
   <si>
     <t>Form</t>
@@ -375,51 +364,6 @@
     <t>Flash Case</t>
   </si>
   <si>
-    <r>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [-]</t>
-    </r>
-  </si>
-  <si>
-    <t>Tb</t>
-  </si>
-  <si>
-    <t>λb</t>
-  </si>
-  <si>
-    <t>Tc</t>
-  </si>
-  <si>
-    <t>Pc</t>
-  </si>
-  <si>
-    <t>Vc</t>
-  </si>
-  <si>
-    <t>Zc</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -432,9 +376,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>[cm3/mol]</t>
-  </si>
-  <si>
     <t>Behaviour Case</t>
   </si>
   <si>
@@ -493,6 +434,126 @@
   </si>
   <si>
     <t>Note: The reference temperature should be below the lowest critical temperature</t>
+  </si>
+  <si>
+    <t>Liquid Mole Fraction</t>
+  </si>
+  <si>
+    <t>Vapour Mole Fraction</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Moles of Liquid</t>
+  </si>
+  <si>
+    <t>Moles of Vapour</t>
+  </si>
+  <si>
+    <t>Overall Mole Fraction</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Hexane Enthalpy</t>
+  </si>
+  <si>
+    <t>Cyclohexane Enthalpy</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Hexane Vapour Pressure</t>
+  </si>
+  <si>
+    <t>Cyclohexane Vapour Pressure</t>
+  </si>
+  <si>
+    <t>P_BP</t>
+  </si>
+  <si>
+    <t>P_DP</t>
+  </si>
+  <si>
+    <t>Q_feed</t>
+  </si>
+  <si>
+    <t>Q_flash</t>
+  </si>
+  <si>
+    <t>term 1</t>
+  </si>
+  <si>
+    <t>term 2</t>
+  </si>
+  <si>
+    <t>term 3</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>case 3</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Temperature (°C)</t>
+  </si>
+  <si>
+    <t>Tank Pressure (bar)</t>
+  </si>
+  <si>
+    <t>Flowrate (mol/h)</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Molecular Weight, M (g/mol)</t>
+  </si>
+  <si>
+    <t>Normal Boiling Point, Tb (K)</t>
+  </si>
+  <si>
+    <t>Enthalpy of Vaporization, λb (kJ/mol)</t>
+  </si>
+  <si>
+    <t>Accentric Factor, ω</t>
+  </si>
+  <si>
+    <t>Critical Temperature, Tc (K)</t>
+  </si>
+  <si>
+    <t>Critical Pressure, Pc (bar)</t>
+  </si>
+  <si>
+    <t>Critical Molar Volume, Vc (mL/mol)</t>
+  </si>
+  <si>
+    <t>Critical Compressibility Factor, Zc</t>
+  </si>
+  <si>
+    <t>Vapour Pressure Correlation Constants, C1</t>
+  </si>
+  <si>
+    <t>Temperature (K): Min</t>
+  </si>
+  <si>
+    <t>Liquid Heat Capacity Correlation Constants: C1</t>
+  </si>
+  <si>
+    <t>Vapour Heat Capacity Correlation Constants: C1</t>
   </si>
 </sst>
 </file>
@@ -540,12 +601,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -560,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,22 +686,29 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2486,7 +2560,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2494,26 +2568,26 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -2521,20 +2595,20 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -2542,7 +2616,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2573,34 +2647,34 @@
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -3155,11 +3229,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AW14"/>
+  <dimension ref="B1:CH19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
+      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3179,41 +3253,46 @@
     <col min="35" max="35" width="10.875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.875" customWidth="1"/>
     <col min="44" max="44" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3" customWidth="1"/>
+    <col min="54" max="54" width="14.875" customWidth="1"/>
+    <col min="63" max="63" width="11.875" customWidth="1"/>
+    <col min="67" max="67" width="12.375" customWidth="1"/>
+    <col min="82" max="82" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="S1" s="25" t="s">
+    <row r="1" spans="2:86" x14ac:dyDescent="0.25">
+      <c r="S1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="28" t="s">
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28" t="s">
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
       <c r="AR1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AS1">
         <v>100</v>
@@ -3222,62 +3301,80 @@
         <v>15</v>
       </c>
       <c r="AU1" s="22" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC1">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE1">
+        <v>0.4325</v>
+      </c>
+      <c r="CG1">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="CH1">
+        <v>0.4325</v>
       </c>
     </row>
-    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="2:86" x14ac:dyDescent="0.25">
+      <c r="C2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="27" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="26" t="s">
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
       <c r="AR2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AS2" s="19">
         <v>373.15</v>
@@ -3285,9 +3382,16 @@
       <c r="AT2" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="BB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC2">
+        <f>1-BC1</f>
+        <v>0.43420000000000003</v>
+      </c>
     </row>
-    <row r="3" spans="2:49" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:86" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3297,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -3314,73 +3418,123 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="23"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23" t="s">
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="23"/>
+      <c r="Y3" s="26"/>
       <c r="Z3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23" t="s">
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="23"/>
+      <c r="AG3" s="26"/>
       <c r="AH3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23" t="s">
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AO3" s="23"/>
+      <c r="AO3" s="26"/>
       <c r="AP3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="AR3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AY3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="4" spans="2:49" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+    <row r="4" spans="2:86" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3388,7 +3542,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
@@ -3490,26 +3644,81 @@
         <v>35</v>
       </c>
       <c r="AR4" s="18" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AS4" s="18" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AT4" s="18" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AU4" s="18" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AV4" s="18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AW4" s="18" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB4" s="18"/>
+      <c r="BC4">
+        <v>2</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:49" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
+    <row r="5" spans="2:86" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3517,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
@@ -3631,13 +3840,13 @@
         <v>16</v>
       </c>
       <c r="AR5" s="21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AS5" s="21" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AT5" s="21" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AU5" s="21" t="s">
         <v>16</v>
@@ -3648,8 +3857,83 @@
       <c r="AW5" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="BD5">
+        <f>BE5-273.15</f>
+        <v>100</v>
+      </c>
+      <c r="BE5">
+        <v>373.15</v>
+      </c>
+      <c r="BF5">
+        <f>(1/1000)*($S$8*(BE5-Tref)+(1/2)*$T$8*(BE5^2-Tref^2)+(1/3)*$U$8*(BE5^3-Tref^3)+(1/4)*$V$8*(BE5^4-Tref^4)+(1/5)*$W$8*(BE5^5-Tref^5))</f>
+        <v>50210.912994763195</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" ref="BG5:BG19" si="0">(1/1000)*($S$8*($D$8-Tref)+(1/2)*$T$8*($D$8^2-Tref^2)+(1/3)*$U$8*($D$8^3-Tref^3)+(1/4)*$V$8*($D$8^4-Tref^4)+(1/5)*$W$8*($D$8^5-Tref^5))+$E$8*1000+8.314*($AA$8*(BE5-$D$8)+(1/2)*$AB$8*(BE5^2-$D$8^2)+(1/3)*$AC$8*(BE5^3-$D$8^3)-$AD$8*(BE5^-1-$D$8^-1))</f>
+        <v>77341.594053981171</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" ref="BH5:BH19" si="1">(1/1000)*($S$9*(BE5-Tref)+(1/2)*$T$9*(BE5^2-Tref^2)+(1/3)*$U$9*(BE5^3-Tref^3)+(1/4)*$V$9*(BE5^4-Tref^4)+(1/5)*$W$9*(BE5^5-Tref^5))</f>
+        <v>32747.387295908542</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" ref="BI5:BI19" si="2">(1/1000)*($S$9*($D$9-Tref)+(1/2)*$T$9*($D$9^2-Tref^2)+(1/3)*$U$9*($D$9^3-Tref^3)+(1/4)*$V$9*($D$9^4-Tref^4)+(1/5)*$W$9*($D$9^5-Tref^5))+$E$9*1000+8.314*($AA$9*(BE5-$D$9)+(1/2)*$AB$9*(BE5^2-$D$9^2)+(1/3)*$AC$9*(BE5^3-$D$9^3)-$AD$9*(BE5^-1-$D$9^-1))</f>
+        <v>61772.128293118287</v>
+      </c>
+      <c r="BJ5">
+        <f>$BA$8*1*BF5</f>
+        <v>20084.365197905281</v>
+      </c>
+      <c r="BK5">
+        <f>$BA$9*1*BH5</f>
+        <v>19648.432377545123</v>
+      </c>
+      <c r="BL5">
+        <f>-1*(BJ5+BK5)</f>
+        <v>-39732.7975754504</v>
+      </c>
+      <c r="BM5" s="24">
+        <f>$AY$8*$BC$1*BF5+$AY$9*$BC$1*BH5+$AZ$8*$BC$2*BG5+$AZ$9*$BC$2*BI5</f>
+        <v>51968.817535715571</v>
+      </c>
+      <c r="BN5">
+        <f>EXP($K$8+$L$8/BE5+$M$8*LN(BE5)+$N$8*BE5^$O$8)/100000</f>
+        <v>2.4421228328165951</v>
+      </c>
+      <c r="BO5">
+        <f>EXP($K$9+$L$9/BE5+$M$9*LN(BE5)+$N$9*BE5^$O$9)/100000</f>
+        <v>1.7459004912476954</v>
+      </c>
+      <c r="BP5">
+        <f>$BA$8*BN5+$BA$9*BO5</f>
+        <v>2.0243894278752554</v>
+      </c>
+      <c r="BQ5">
+        <f>1/($BA$8/BN5+$BA$9/BO5)</f>
+        <v>1.9706214905449928</v>
+      </c>
+      <c r="BS5">
+        <f>(1/1000)*($S$8*(BE5-Tref)+(1/2)*$T$8*(BE5^2-Tref^2)+(1/3)*$U$8*(BE5^3-Tref^3)+(1/4)*$V$8*(BE5^4-Tref^4)+(1/5)*$W$8*(BE5^5-Tref^5))</f>
+        <v>50210.912994763195</v>
+      </c>
+      <c r="BT5">
+        <f>$S$8*(BE5-Tref)</f>
+        <v>47014577.999999993</v>
+      </c>
+      <c r="BU5">
+        <f>(1/2)*$T$8*(BE5^2-Tref^2)</f>
+        <v>-11875948.368524998</v>
+      </c>
+      <c r="BV5">
+        <f>(1/3)*$U$8*(BE5^3-Tref^3)</f>
+        <v>15072283.363288205</v>
+      </c>
+      <c r="BW5">
+        <f>0.001*SUM(BT5:BV5)</f>
+        <v>50210.912994763195</v>
+      </c>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3807,19 +4091,74 @@
         <v>30084.400291466096</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU11" si="0">1-Tvalid/G6</f>
+        <f t="shared" ref="AU6:AU11" si="3">1-Tvalid/G6</f>
         <v>-0.22224041925974447</v>
       </c>
       <c r="AV6">
-        <f t="shared" ref="AV6:AV11" si="1">1-Tref/G6</f>
+        <f t="shared" ref="AV6:AV11" si="4">1-Tref/G6</f>
         <v>0.6724533245987554</v>
       </c>
       <c r="AW6">
         <f>1-D6/G6</f>
         <v>0.39534883720930236</v>
       </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6:BD7" si="5">BE6-273.15</f>
+        <v>155.75</v>
+      </c>
+      <c r="BE6">
+        <v>428.9</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6:BF19" si="6">(1/1000)*($S$8*(BE6-Tref)+(1/2)*$T$8*(BE6^2-Tref^2)+(1/3)*$U$8*(BE6^3-Tref^3)+(1/4)*$V$8*(BE6^4-Tref^4)+(1/5)*$W$8*(BE6^5-Tref^5))</f>
+        <v>63666.309419818805</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" si="0"/>
+        <v>87475.757024280174</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" si="1"/>
+        <v>44167.997269825457</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" si="2"/>
+        <v>70169.618187982793</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" ref="BJ6:BJ19" si="7">$BA$8*1*BF6</f>
+        <v>25466.523767927523</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" ref="BK6:BK19" si="8">$BA$9*1*BH6</f>
+        <v>26500.798361895275</v>
+      </c>
+      <c r="BL6" s="24">
+        <f t="shared" ref="BL6:BL19" si="9">-1*(BJ6+BK6)</f>
+        <v>-51967.322129822802</v>
+      </c>
+      <c r="BM6">
+        <f>$AY$8*$BC$1*BF6+$AY$9*$BC$1*BH6+$AZ$8*$BC$2*BG6+$AZ$9*$BC$2*BI6</f>
+        <v>62833.017437869727</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" ref="BN6:BN19" si="10">EXP($K$8+$L$8/BE6+$M$8*LN(BE6)+$N$8*BE6^$O$8)/100000</f>
+        <v>8.2865245079845415</v>
+      </c>
+      <c r="BO6">
+        <f t="shared" ref="BO6:BO19" si="11">EXP($K$9+$L$9/BE6+$M$9*LN(BE6)+$N$9*BE6^$O$9)/100000</f>
+        <v>6.1935363705249946</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" ref="BP6:BP19" si="12">$BA$8*BN6+$BA$9*BO6</f>
+        <v>7.0307316255088139</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" ref="BQ6:BQ19" si="13">1/($BA$8/BN6+$BA$9/BO6)</f>
+        <v>6.8895989400354694</v>
+      </c>
     </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3830,7 +4169,7 @@
         <v>309.2</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:E11" si="2">(1/1000000)*AI7*(1-D7/G7)^(AJ7+AK7*(D7/G7)+AL7*(D7/G7)^2)</f>
+        <f t="shared" ref="E7:E11" si="14">(1/1000000)*AI7*(1-D7/G7)^(AJ7+AK7*(D7/G7)+AL7*(D7/G7)^2)</f>
         <v>25.816038463315916</v>
       </c>
       <c r="F7" s="13">
@@ -3965,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <f>EXP(K7+L7/Tvalid+M7*LN(Tvalid)+N7*Tvalid^O7)/100000</f>
+        <f t="shared" ref="AR7:AR11" si="15">EXP(K7+L7/Tvalid+M7*LN(Tvalid)+N7*Tvalid^O7)/100000</f>
         <v>5.9187195450387931</v>
       </c>
       <c r="AS7">
@@ -3977,19 +4316,74 @@
         <v>65654.482047438854</v>
       </c>
       <c r="AU7">
+        <f t="shared" si="3"/>
+        <v>0.20555673834362365</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="4"/>
+        <v>0.78709814775388542</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" ref="AW7:AW11" si="16">1-D7/G7</f>
+        <v>0.34170747285501379</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="5"/>
+        <v>91.44</v>
+      </c>
+      <c r="BE7">
+        <v>364.59</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="6"/>
+        <v>48284.309729167253</v>
+      </c>
+      <c r="BG7">
         <f t="shared" si="0"/>
-        <v>0.20555673834362365</v>
-      </c>
-      <c r="AV7">
+        <v>75878.620757375291</v>
+      </c>
+      <c r="BH7">
         <f t="shared" si="1"/>
-        <v>0.78709814775388542</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" ref="AW7:AW11" si="3">1-D7/G7</f>
-        <v>0.34170747285501379</v>
+        <v>31171.531711717817</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="2"/>
+        <v>60590.246756083936</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="7"/>
+        <v>19313.723891666901</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="8"/>
+        <v>18702.91902703069</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="9"/>
+        <v>-38016.642918697587</v>
+      </c>
+      <c r="BM7" s="24">
+        <f t="shared" ref="BM7:BM19" si="17">$AY$8*$BC$1*BF7+$AY$9*$BC$1*BH7+$AZ$8*$BC$2*BG7+$AZ$9*$BC$2*BI7</f>
+        <v>50437.204625161517</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" si="10"/>
+        <v>1.9528761859911454</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" si="11"/>
+        <v>1.381435028827211</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="12"/>
+        <v>1.6100114916927848</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="13"/>
+        <v>1.5645606933117786</v>
       </c>
     </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -4000,7 +4394,7 @@
         <v>341.9</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>28.784708692638056</v>
       </c>
       <c r="F8" s="13">
@@ -4147,19 +4541,104 @@
         <v>77341.594053981171</v>
       </c>
       <c r="AU8">
+        <f t="shared" si="3"/>
+        <v>0.26487391646966119</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="4"/>
+        <v>0.80299448384554772</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="16"/>
+        <v>0.32643814026792761</v>
+      </c>
+      <c r="AY8">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="AZ8">
+        <v>0.4456</v>
+      </c>
+      <c r="BA8">
+        <v>0.4</v>
+      </c>
+      <c r="BB8">
+        <f>AY8*$BC$1*AS8</f>
+        <v>10369.407118939509</v>
+      </c>
+      <c r="BC8">
+        <f>AZ8*$BC$2*AT8</f>
+        <v>14964.014493599132</v>
+      </c>
+      <c r="BE8">
+        <v>330</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="6"/>
+        <v>40833.344859999997</v>
+      </c>
+      <c r="BG8">
         <f t="shared" si="0"/>
-        <v>0.26487391646966119</v>
-      </c>
-      <c r="AV8">
+        <v>70226.072699246521</v>
+      </c>
+      <c r="BH8">
         <f t="shared" si="1"/>
-        <v>0.80299448384554772</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="3"/>
-        <v>0.32643814026792761</v>
+        <v>25158.791250833354</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="2"/>
+        <v>56114.398499295887</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="7"/>
+        <v>16333.337943999999</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="8"/>
+        <v>15095.274750500012</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" si="9"/>
+        <v>-31428.612694500011</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" si="17"/>
+        <v>44567.097656422891</v>
+      </c>
+      <c r="BN8">
+        <f t="shared" si="10"/>
+        <v>0.68853143101833458</v>
+      </c>
+      <c r="BO8">
+        <f t="shared" si="11"/>
+        <v>0.46379192022523785</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" si="12"/>
+        <v>0.5536877245424765</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" si="13"/>
+        <v>0.53343853971269117</v>
+      </c>
+      <c r="BZ8">
+        <v>0.4</v>
+      </c>
+      <c r="CA8">
+        <v>1.22106</v>
+      </c>
+      <c r="CB8">
+        <v>1.22279</v>
+      </c>
+      <c r="CD8">
+        <f>BZ8*(CA8-1)/(1+(CA8-1)*$CE$1)</f>
+        <v>8.0707665224743388E-2</v>
+      </c>
+      <c r="CE8">
+        <f>BZ8*(CB8-1)/(1+(CB8-1)*$CE$1)</f>
+        <v>8.1283766526071485E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
@@ -4170,7 +4649,7 @@
         <v>353.9</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>29.899603719140696</v>
       </c>
       <c r="F9" s="13">
@@ -4317,19 +4796,107 @@
         <v>61772.128293118287</v>
       </c>
       <c r="AU9">
+        <f t="shared" si="3"/>
+        <v>0.3259573699421966</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="4"/>
+        <v>0.81936416184971095</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="16"/>
+        <v>0.36072976878612728</v>
+      </c>
+      <c r="AY9">
+        <f>1-AY8</f>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="AZ9">
+        <f>1-AZ8</f>
+        <v>0.5544</v>
+      </c>
+      <c r="BA9">
+        <f>1-BA8</f>
+        <v>0.6</v>
+      </c>
+      <c r="BB9">
+        <f>AY9*$BC$1*AS9</f>
+        <v>11765.579549835908</v>
+      </c>
+      <c r="BC9">
+        <f>AZ9*$BC$2*AT9</f>
+        <v>14869.816373341015</v>
+      </c>
+      <c r="BE9">
+        <v>340</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="6"/>
+        <v>42934.773119999998</v>
+      </c>
+      <c r="BG9">
         <f t="shared" si="0"/>
-        <v>0.3259573699421966</v>
-      </c>
-      <c r="AV9">
+        <v>71817.152817960523</v>
+      </c>
+      <c r="BH9">
         <f t="shared" si="1"/>
-        <v>0.81936416184971095</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="3"/>
-        <v>0.36072976878612728</v>
+        <v>26843.633280000016</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="2"/>
+        <v>57358.471854107891</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="7"/>
+        <v>17173.909248</v>
+      </c>
+      <c r="BK9">
+        <f t="shared" si="8"/>
+        <v>16106.179968000009</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" si="9"/>
+        <v>-33280.089216000008</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" si="17"/>
+        <v>46213.728767934277</v>
+      </c>
+      <c r="BN9">
+        <f t="shared" si="10"/>
+        <v>0.95509057520218321</v>
+      </c>
+      <c r="BO9">
+        <f t="shared" si="11"/>
+        <v>0.65295196295764801</v>
+      </c>
+      <c r="BP9">
+        <f t="shared" si="12"/>
+        <v>0.77380740785546209</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="13"/>
+        <v>0.74754495852156821</v>
+      </c>
+      <c r="BZ9">
+        <v>0.6</v>
+      </c>
+      <c r="CA9">
+        <v>0.87295</v>
+      </c>
+      <c r="CB9">
+        <v>0.87424000000000002</v>
+      </c>
+      <c r="CD9">
+        <f>BZ9*(CA9-1)/(1+(CA9-1)*$CE$1)</f>
+        <v>-8.0662324131491853E-2</v>
+      </c>
+      <c r="CE9">
+        <f>BZ9*(CB9-1)/(1+(CB9-1)*$CE$1)</f>
+        <v>-7.979621171038169E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4340,7 +4907,7 @@
         <v>373.2</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>40.796060811451134</v>
       </c>
       <c r="F10" s="13">
@@ -4475,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <f>EXP(K10+L10/Tvalid+M10*LN(Tvalid)+N10*Tvalid^O10)/100000</f>
+        <f t="shared" si="15"/>
         <v>1.0126056298096628</v>
       </c>
       <c r="AS10">
@@ -4487,19 +5054,78 @@
         <v>64707.626599378316</v>
       </c>
       <c r="AU10">
+        <f t="shared" si="3"/>
+        <v>0.42335033225158403</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="4"/>
+        <v>0.84546437953948383</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="16"/>
+        <v>0.42327306444135382</v>
+      </c>
+      <c r="BE10">
+        <v>350</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="6"/>
+        <v>45078.162499999999</v>
+      </c>
+      <c r="BG10">
         <f t="shared" si="0"/>
-        <v>0.42335033225158403</v>
-      </c>
-      <c r="AV10">
+        <v>73443.404582042524</v>
+      </c>
+      <c r="BH10">
         <f t="shared" si="1"/>
-        <v>0.84546437953948383</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="3"/>
-        <v>0.42327306444135382</v>
+        <v>28570.315104166686</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="2"/>
+        <v>58643.298740863887</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="7"/>
+        <v>18031.264999999999</v>
+      </c>
+      <c r="BK10">
+        <f t="shared" si="8"/>
+        <v>17142.189062500012</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" si="9"/>
+        <v>-35173.454062500008</v>
+      </c>
+      <c r="BM10">
+        <f t="shared" si="17"/>
+        <v>47900.673093966354</v>
+      </c>
+      <c r="BN10">
+        <f t="shared" si="10"/>
+        <v>1.2958116423025616</v>
+      </c>
+      <c r="BO10">
+        <f t="shared" si="11"/>
+        <v>0.89874848983338085</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="12"/>
+        <v>1.0575737508210532</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="13"/>
+        <v>1.0242943765791694</v>
+      </c>
+      <c r="CD10">
+        <f>SUM(CD8:CD9)</f>
+        <v>4.5341093251535791E-5</v>
+      </c>
+      <c r="CE10">
+        <f>SUM(CE8:CE9)</f>
+        <v>1.4875548156897955E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4510,7 +5136,7 @@
         <v>77.3</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>5.5699118113163619</v>
       </c>
       <c r="F11" s="13">
@@ -4645,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <f>EXP(K11+L11/Tvalid+M11*LN(Tvalid)+N11*Tvalid^O11)/100000</f>
+        <f t="shared" si="15"/>
         <v>65649.421876437118</v>
       </c>
       <c r="AS11">
@@ -4657,19 +5283,70 @@
         <v>12945.950780900417</v>
       </c>
       <c r="AU11">
+        <f t="shared" si="3"/>
+        <v>-1.9568145800316956</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="4"/>
+        <v>0.20760697305863707</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="16"/>
+        <v>0.38748019017432656</v>
+      </c>
+      <c r="BE11">
+        <v>360</v>
+      </c>
+      <c r="BF11">
+        <f t="shared" si="6"/>
+        <v>47265.287680000001</v>
+      </c>
+      <c r="BG11">
         <f t="shared" si="0"/>
-        <v>-1.9568145800316956</v>
-      </c>
-      <c r="AV11">
+        <v>75104.54879074452</v>
+      </c>
+      <c r="BH11">
         <f t="shared" si="1"/>
-        <v>0.20760697305863707</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="3"/>
-        <v>0.38748019017432656</v>
+        <v>30342.115613333361</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="2"/>
+        <v>59968.531168779889</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="7"/>
+        <v>18906.115072000001</v>
+      </c>
+      <c r="BK11">
+        <f t="shared" si="8"/>
+        <v>18205.269368000016</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" si="9"/>
+        <v>-37111.384440000016</v>
+      </c>
+      <c r="BM11">
+        <f t="shared" si="17"/>
+        <v>49629.33739740929</v>
+      </c>
+      <c r="BN11">
+        <f t="shared" si="10"/>
+        <v>1.7235985458784384</v>
+      </c>
+      <c r="BO11">
+        <f t="shared" si="11"/>
+        <v>1.2119610469667705</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" si="12"/>
+        <v>1.4166160465314377</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="13"/>
+        <v>1.3752547310153422</v>
       </c>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:86" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="14"/>
@@ -4677,35 +5354,469 @@
       <c r="G12" s="2"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
+      <c r="BB12">
+        <f>SUM(BB6:BB11)</f>
+        <v>22134.986668775418</v>
+      </c>
+      <c r="BC12">
+        <f>SUM(BC6:BC11)</f>
+        <v>29833.830866940145</v>
+      </c>
+      <c r="BD12">
+        <f>-1*SUM(BB12:BC12)</f>
+        <v>-51968.817535715563</v>
+      </c>
+      <c r="BE12">
+        <v>372.68799999999999</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="6"/>
+        <v>50106.045427541198</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="0"/>
+        <v>77261.992322762191</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="1"/>
+        <v>32661.332076720671</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="2"/>
+        <v>61707.597097743572</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="7"/>
+        <v>20042.418171016481</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="8"/>
+        <v>19596.799246032402</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="9"/>
+        <v>-39639.217417048887</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="17"/>
+        <v>51885.307137947108</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="10"/>
+        <v>2.4135480460803733</v>
+      </c>
+      <c r="BO12">
+        <f t="shared" si="11"/>
+        <v>1.7245233694209763</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="12"/>
+        <v>2.0001332400847351</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="13"/>
+        <v>1.946838340110026</v>
+      </c>
     </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:86" x14ac:dyDescent="0.25">
+      <c r="BE13">
+        <v>373.72</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="6"/>
+        <v>50340.435796324397</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="0"/>
+        <v>77439.90470376653</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="1"/>
+        <v>32853.721481946028</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="2"/>
+        <v>61851.861170662414</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="7"/>
+        <v>20136.17431852976</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="8"/>
+        <v>19712.232889167615</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="9"/>
+        <v>-39848.407207697375</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="17"/>
+        <v>52071.984695373249</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="10"/>
+        <v>2.477732375722455</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="11"/>
+        <v>1.772554290753632</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="12"/>
+        <v>2.0546255247411613</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="13"/>
+        <v>2.0002700191049096</v>
+      </c>
+    </row>
+    <row r="14" spans="2:86" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
+      <c r="BE14">
+        <v>390</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="6"/>
+        <v>54106.824820000002</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="0"/>
+        <v>80294.544077090526</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="1"/>
+        <v>35970.636450833365</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="2"/>
+        <v>64183.18179164789</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="7"/>
+        <v>21642.729928000001</v>
+      </c>
+      <c r="BK14">
+        <f>$BA$9*1*BH14</f>
+        <v>21582.381870500019</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="9"/>
+        <v>-43225.111798500016</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="17"/>
+        <v>55083.173492783761</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" si="10"/>
+        <v>3.6731487619499052</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" si="11"/>
+        <v>2.6742401282418489</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="12"/>
+        <v>3.0738035817250715</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="13"/>
+        <v>3.000649407486879</v>
+      </c>
+    </row>
+    <row r="15" spans="2:86" x14ac:dyDescent="0.25">
+      <c r="BE15">
+        <v>400</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="6"/>
+        <v>56486.64</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="0"/>
+        <v>82092.466056792531</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="1"/>
+        <v>37968.525000000031</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="2"/>
+        <v>65666.556476363898</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="7"/>
+        <v>22594.656000000003</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="8"/>
+        <v>22781.115000000016</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="9"/>
+        <v>-45375.771000000022</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="17"/>
+        <v>56997.392923676947</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="10"/>
+        <v>4.5983698380972093</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="11"/>
+        <v>3.3779799441338798</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="12"/>
+        <v>3.8661359017192116</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="13"/>
+        <v>3.7791709970255991</v>
+      </c>
+    </row>
+    <row r="16" spans="2:86" x14ac:dyDescent="0.25">
+      <c r="BE16">
+        <v>410</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="6"/>
+        <v>58919.064379999996</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="0"/>
+        <v>83923.884477374522</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="1"/>
+        <v>40037.5449841667</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="2"/>
+        <v>67188.596748319891</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="7"/>
+        <v>23567.625752</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="8"/>
+        <v>24022.52699050002</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="9"/>
+        <v>-47590.152742500024</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="17"/>
+        <v>58963.8218381107</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" si="10"/>
+        <v>5.6910642572677919</v>
+      </c>
+      <c r="BO16">
+        <f t="shared" si="11"/>
+        <v>4.2120096610116775</v>
+      </c>
+      <c r="BP16">
+        <f t="shared" si="12"/>
+        <v>4.8036314995141236</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="13"/>
+        <v>4.7006742432938173</v>
+      </c>
+    </row>
+    <row r="17" spans="57:69" x14ac:dyDescent="0.25">
+      <c r="BE17">
+        <v>420</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="6"/>
+        <v>61405.872640000001</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="0"/>
+        <v>85788.520138088526</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="1"/>
+        <v>42184.822613333374</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="2"/>
+        <v>68748.954616731891</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="7"/>
+        <v>24562.349056000003</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" si="8"/>
+        <v>25310.893568000025</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" si="9"/>
+        <v>-49873.242624000028</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="17"/>
+        <v>60985.249275646755</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" si="10"/>
+        <v>6.9713940464056972</v>
+      </c>
+      <c r="BO17">
+        <f t="shared" si="11"/>
+        <v>5.1901829801101744</v>
+      </c>
+      <c r="BP17">
+        <f t="shared" si="12"/>
+        <v>5.9026674066283835</v>
+      </c>
+      <c r="BQ17">
+        <f t="shared" si="13"/>
+        <v>5.7810086620082366</v>
+      </c>
+    </row>
+    <row r="18" spans="57:69" x14ac:dyDescent="0.25">
+      <c r="BE18">
+        <v>430</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="6"/>
+        <v>63948.839459999996</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="0"/>
+        <v>87686.093838186527</v>
+      </c>
+      <c r="BH18">
+        <f t="shared" si="1"/>
+        <v>44418.125317500024</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" si="2"/>
+        <v>70347.28209081589</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="7"/>
+        <v>25579.535784</v>
+      </c>
+      <c r="BK18">
+        <f t="shared" si="8"/>
+        <v>26650.875190500014</v>
+      </c>
+      <c r="BL18">
+        <f t="shared" si="9"/>
+        <v>-52230.410974500017</v>
+      </c>
+      <c r="BM18">
+        <f t="shared" si="17"/>
+        <v>63064.694655292071</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" si="10"/>
+        <v>8.4614204643975555</v>
+      </c>
+      <c r="BO18">
+        <f t="shared" si="11"/>
+        <v>6.3267649334264888</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="12"/>
+        <v>7.1806271458149151</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" si="13"/>
+        <v>7.0368726084995465</v>
+      </c>
+    </row>
+    <row r="19" spans="57:69" x14ac:dyDescent="0.25">
+      <c r="BE19">
+        <v>440</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="6"/>
+        <v>66549.739520000003</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="0"/>
+        <v>89616.326376920522</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="1"/>
+        <v>46745.861746666713</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="2"/>
+        <v>71983.231179787894</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="7"/>
+        <v>26619.895808000001</v>
+      </c>
+      <c r="BK19">
+        <f t="shared" si="8"/>
+        <v>28047.517048000027</v>
+      </c>
+      <c r="BL19">
+        <f t="shared" si="9"/>
+        <v>-54667.412856000024</v>
+      </c>
+      <c r="BM19">
+        <f t="shared" si="17"/>
+        <v>65205.407775498927</v>
+      </c>
+      <c r="BN19">
+        <f t="shared" si="10"/>
+        <v>10.185446802805812</v>
+      </c>
+      <c r="BO19">
+        <f t="shared" si="11"/>
+        <v>7.6365215688054739</v>
+      </c>
+      <c r="BP19">
+        <f t="shared" si="12"/>
+        <v>8.6560916624056095</v>
+      </c>
+      <c r="BQ19">
+        <f t="shared" si="13"/>
+        <v>8.4859732096797913</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="K2:R2"/>
+    <mergeCell ref="AI1:AP1"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BH3:BI3"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="AI3:AM3"/>
     <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AI1:AP1"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AR3:AW3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4713,1087 +5824,974 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.375" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="23" max="23" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1"/>
+    <col min="9" max="9" width="31.25" customWidth="1"/>
+    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="11" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.875" customWidth="1"/>
+    <col min="16" max="16" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.25" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.625" customWidth="1"/>
+    <col min="24" max="24" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.25" customWidth="1"/>
+    <col min="27" max="27" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22" customWidth="1"/>
+    <col min="31" max="32" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="B2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
     </row>
-    <row r="3" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>175</v>
-      </c>
-      <c r="D3" s="16">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16"/>
+    <row r="3" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0.6</v>
-      </c>
+      <c r="R3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4">
+        <v>30.07</v>
+      </c>
+      <c r="C4">
+        <v>184.6</v>
+      </c>
+      <c r="D4">
+        <v>14.624985576079146</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>305.3</v>
+      </c>
+      <c r="G4">
+        <v>48.72</v>
+      </c>
+      <c r="H4">
+        <v>145.5</v>
+      </c>
+      <c r="I4">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="J4">
+        <v>51.856999999999999</v>
+      </c>
+      <c r="K4">
+        <v>-2598.6999999999998</v>
+      </c>
+      <c r="L4">
+        <v>-5.1283000000000003</v>
+      </c>
+      <c r="M4">
+        <v>1.4912999999999999E-5</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>90.35</v>
+      </c>
+      <c r="P4">
+        <v>305.32</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>44.009</v>
+      </c>
+      <c r="S4">
+        <v>89718</v>
+      </c>
+      <c r="T4">
+        <v>918.77</v>
+      </c>
+      <c r="U4">
+        <v>-1886</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>92</v>
+      </c>
+      <c r="X4">
+        <v>290</v>
+      </c>
+      <c r="Y4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>12</v>
-      </c>
-      <c r="N4">
-        <v>13</v>
-      </c>
-      <c r="O4">
-        <v>14</v>
-      </c>
-      <c r="P4">
-        <v>15</v>
-      </c>
-      <c r="Q4">
-        <v>16</v>
-      </c>
-      <c r="R4">
-        <v>17</v>
-      </c>
-      <c r="S4">
-        <v>18</v>
-      </c>
-      <c r="T4">
-        <v>19</v>
-      </c>
-      <c r="U4">
-        <v>20</v>
-      </c>
-      <c r="V4">
-        <v>21</v>
-      </c>
-      <c r="W4">
-        <v>22</v>
-      </c>
-      <c r="X4">
-        <v>23</v>
-      </c>
-      <c r="Y4">
-        <v>24</v>
-      </c>
       <c r="Z4">
-        <v>25</v>
+        <v>1.131</v>
       </c>
       <c r="AA4">
-        <v>26</v>
+        <v>1.9225000000000003E-2</v>
       </c>
       <c r="AB4">
-        <v>27</v>
+        <v>-5.5609999999999998E-6</v>
       </c>
       <c r="AC4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="AE4">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="AF4">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="C5">
+        <v>309.2</v>
+      </c>
+      <c r="D5">
+        <v>25.816038463315916</v>
+      </c>
+      <c r="E5">
+        <v>0.252</v>
+      </c>
+      <c r="F5">
+        <v>469.7</v>
+      </c>
+      <c r="G5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H5">
+        <v>313</v>
+      </c>
+      <c r="I5">
+        <v>0.27</v>
+      </c>
+      <c r="J5">
+        <v>78.741</v>
+      </c>
+      <c r="K5">
+        <v>-5420.3</v>
+      </c>
+      <c r="L5">
+        <v>-8.8253000000000004</v>
+      </c>
+      <c r="M5">
+        <v>9.6170999999999998E-6</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="P5">
+        <v>469.7</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>159080</v>
+      </c>
+      <c r="S5">
+        <v>-270.5</v>
+      </c>
+      <c r="T5">
+        <v>0.99536999999999998</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="X5">
+        <v>390</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>2.464</v>
+      </c>
+      <c r="AA5">
+        <v>4.5351000000000002E-2</v>
+      </c>
+      <c r="AB5">
+        <v>-1.4110999999999999E-5</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>298</v>
+      </c>
+      <c r="AE5">
+        <v>1500</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>86.177000000000007</v>
+      </c>
+      <c r="C6">
+        <v>341.9</v>
+      </c>
+      <c r="D6">
+        <v>28.784708692638056</v>
+      </c>
+      <c r="E6">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F6">
+        <v>507.6</v>
+      </c>
+      <c r="G6">
+        <v>30.25</v>
+      </c>
+      <c r="H6">
+        <v>371</v>
+      </c>
+      <c r="I6">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="J6">
+        <v>104.65</v>
+      </c>
+      <c r="K6">
+        <v>-6995.5</v>
+      </c>
+      <c r="L6">
+        <v>-12.702</v>
+      </c>
+      <c r="M6">
+        <v>1.2381000000000001E-5</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
+      <c r="O6">
+        <v>177.83</v>
+      </c>
+      <c r="P6">
+        <v>507.6</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>172120</v>
+      </c>
+      <c r="S6">
+        <v>-183.78</v>
+      </c>
+      <c r="T6">
+        <v>0.88734000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>177.83</v>
+      </c>
+      <c r="X6">
+        <v>460</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>5.3722000000000006E-2</v>
+      </c>
+      <c r="AB6">
+        <v>-1.6790999999999999E-5</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>298</v>
+      </c>
+      <c r="AE6">
+        <v>1500</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>35</v>
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>84.161000000000001</v>
+      </c>
+      <c r="C7">
+        <v>353.9</v>
+      </c>
+      <c r="D7">
+        <v>29.899603719140696</v>
+      </c>
+      <c r="E7">
+        <v>0.21</v>
+      </c>
+      <c r="F7">
+        <v>553.6</v>
+      </c>
+      <c r="G7">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="H7">
+        <v>308</v>
+      </c>
+      <c r="I7">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J7">
+        <v>51.087000000000003</v>
+      </c>
+      <c r="K7">
+        <v>-5226.3999999999996</v>
+      </c>
+      <c r="L7">
+        <v>-4.2278000000000002</v>
+      </c>
+      <c r="M7">
+        <v>9.7454000000000005E-18</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>279.69</v>
+      </c>
+      <c r="P7">
+        <v>553.79999999999995</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>-220600</v>
+      </c>
+      <c r="S7">
+        <v>3118.3</v>
+      </c>
+      <c r="T7">
+        <v>-9.4215999999999998</v>
+      </c>
+      <c r="U7">
+        <v>1.0687E-2</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>279.69</v>
+      </c>
+      <c r="X7">
+        <v>400</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>-3.8759999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>6.3249E-2</v>
+      </c>
+      <c r="AB7">
+        <v>-2.0928E-5</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>298</v>
+      </c>
+      <c r="AE7">
+        <v>1500</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" t="s">
-        <v>16</v>
-      </c>
-      <c r="W8" t="s">
-        <v>15</v>
-      </c>
-      <c r="X8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>16</v>
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="C8">
+        <v>373.2</v>
+      </c>
+      <c r="D8">
+        <v>40.796060811451134</v>
+      </c>
+      <c r="E8">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F8">
+        <v>647.1</v>
+      </c>
+      <c r="G8">
+        <v>220.55</v>
+      </c>
+      <c r="H8">
+        <v>55.9</v>
+      </c>
+      <c r="I8">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J8">
+        <v>73.649000000000001</v>
+      </c>
+      <c r="K8">
+        <v>-7258.2</v>
+      </c>
+      <c r="L8">
+        <v>-7.3037000000000001</v>
+      </c>
+      <c r="M8">
+        <v>4.1652999999999997E-6</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>273.16000000000003</v>
+      </c>
+      <c r="P8">
+        <v>647.096</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>276370</v>
+      </c>
+      <c r="S8">
+        <v>-2090.1</v>
+      </c>
+      <c r="T8">
+        <v>8.125</v>
+      </c>
+      <c r="U8">
+        <v>-1.4116E-2</v>
+      </c>
+      <c r="V8">
+        <v>9.3701000000000003E-6</v>
+      </c>
+      <c r="W8">
+        <v>273.16000000000003</v>
+      </c>
+      <c r="X8">
+        <v>533.15</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>3.47</v>
+      </c>
+      <c r="AA8">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>12100</v>
+      </c>
+      <c r="AD8">
+        <v>298</v>
+      </c>
+      <c r="AE8">
+        <v>2000</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>30.07</v>
+        <v>28.013999999999999</v>
       </c>
       <c r="C9">
-        <v>184.6</v>
+        <v>77.3</v>
       </c>
       <c r="D9">
-        <v>14.624985576079146</v>
+        <v>5.5699118113163619</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>305.3</v>
+        <v>126.2</v>
       </c>
       <c r="G9">
-        <v>48.72</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>145.5</v>
+        <v>89.2</v>
       </c>
       <c r="I9">
-        <v>0.27900000000000003</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="J9">
-        <v>51.856999999999999</v>
+        <v>58.281999999999996</v>
       </c>
       <c r="K9">
-        <v>-2598.6999999999998</v>
+        <v>-1084.0999999999999</v>
       </c>
       <c r="L9">
-        <v>-5.1283000000000003</v>
+        <v>-8.3143999999999991</v>
       </c>
       <c r="M9">
-        <v>1.4912999999999999E-5</v>
+        <v>4.4127E-2</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>90.35</v>
+        <v>63.15</v>
       </c>
       <c r="P9">
-        <v>305.32</v>
+        <v>126.2</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>44.009</v>
+        <v>281970</v>
       </c>
       <c r="S9">
-        <v>89718</v>
+        <v>-12281</v>
       </c>
       <c r="T9">
-        <v>918.77</v>
+        <v>248</v>
       </c>
       <c r="U9">
-        <v>-1886</v>
+        <v>-2.2181999999999999</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>7.4901999999999998E-3</v>
       </c>
       <c r="W9">
-        <v>92</v>
+        <v>63.15</v>
       </c>
       <c r="X9">
-        <v>290</v>
+        <v>0.55930000000000002</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1.131</v>
+        <v>3.28</v>
       </c>
       <c r="AA9">
-        <v>1.9225000000000003E-2</v>
+        <v>5.9299999999999999E-4</v>
       </c>
       <c r="AB9">
-        <v>-5.5609999999999998E-6</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AD9">
         <v>298</v>
       </c>
       <c r="AE9">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>72.150000000000006</v>
-      </c>
-      <c r="C10">
-        <v>309.2</v>
-      </c>
-      <c r="D10">
-        <v>25.816038463315916</v>
-      </c>
-      <c r="E10">
-        <v>0.252</v>
-      </c>
-      <c r="F10">
-        <v>469.7</v>
-      </c>
-      <c r="G10">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H10">
-        <v>313</v>
-      </c>
-      <c r="I10">
-        <v>0.27</v>
-      </c>
-      <c r="J10">
-        <v>78.741</v>
-      </c>
-      <c r="K10">
-        <v>-5420.3</v>
-      </c>
-      <c r="L10">
-        <v>-8.8253000000000004</v>
-      </c>
-      <c r="M10">
-        <v>9.6170999999999998E-6</v>
-      </c>
-      <c r="N10">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>175</v>
+      </c>
+      <c r="D2" s="16">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>143.41999999999999</v>
-      </c>
-      <c r="P10">
-        <v>469.7</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>159080</v>
-      </c>
-      <c r="S10">
-        <v>-270.5</v>
-      </c>
-      <c r="T10">
-        <v>0.99536999999999998</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>143.41999999999999</v>
-      </c>
-      <c r="X10">
-        <v>390</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>2.464</v>
-      </c>
-      <c r="AA10">
-        <v>4.5351000000000002E-2</v>
-      </c>
-      <c r="AB10">
-        <v>-1.4110999999999999E-5</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>298</v>
-      </c>
-      <c r="AE10">
-        <v>1500</v>
-      </c>
-      <c r="AF10">
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
-        <v>86.177000000000007</v>
-      </c>
-      <c r="C11">
-        <v>341.9</v>
-      </c>
-      <c r="D11">
-        <v>28.784708692638056</v>
-      </c>
-      <c r="E11">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="F11">
-        <v>507.6</v>
-      </c>
-      <c r="G11">
-        <v>30.25</v>
-      </c>
-      <c r="H11">
-        <v>371</v>
-      </c>
-      <c r="I11">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="J11">
-        <v>104.65</v>
-      </c>
-      <c r="K11">
-        <v>-6995.5</v>
-      </c>
-      <c r="L11">
-        <v>-12.702</v>
-      </c>
-      <c r="M11">
-        <v>1.2381000000000001E-5</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>177.83</v>
-      </c>
-      <c r="P11">
-        <v>507.6</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>172120</v>
-      </c>
-      <c r="S11">
-        <v>-183.78</v>
-      </c>
-      <c r="T11">
-        <v>0.88734000000000002</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>177.83</v>
-      </c>
-      <c r="X11">
-        <v>460</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>3.0249999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>5.3722000000000006E-2</v>
-      </c>
-      <c r="AB11">
-        <v>-1.6790999999999999E-5</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>298</v>
-      </c>
-      <c r="AE11">
-        <v>1500</v>
-      </c>
-      <c r="AF11">
+      <c r="B5" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>84.161000000000001</v>
-      </c>
-      <c r="C12">
-        <v>353.9</v>
-      </c>
-      <c r="D12">
-        <v>29.899603719140696</v>
-      </c>
-      <c r="E12">
-        <v>0.21</v>
-      </c>
-      <c r="F12">
-        <v>553.6</v>
-      </c>
-      <c r="G12">
-        <v>40.729999999999997</v>
-      </c>
-      <c r="H12">
-        <v>308</v>
-      </c>
-      <c r="I12">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J12">
-        <v>51.087000000000003</v>
-      </c>
-      <c r="K12">
-        <v>-5226.3999999999996</v>
-      </c>
-      <c r="L12">
-        <v>-4.2278000000000002</v>
-      </c>
-      <c r="M12">
-        <v>9.7454000000000005E-18</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>279.69</v>
-      </c>
-      <c r="P12">
-        <v>553.79999999999995</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>-220600</v>
-      </c>
-      <c r="S12">
-        <v>3118.3</v>
-      </c>
-      <c r="T12">
-        <v>-9.4215999999999998</v>
-      </c>
-      <c r="U12">
-        <v>1.0687E-2</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>279.69</v>
-      </c>
-      <c r="X12">
-        <v>400</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>-3.8759999999999999</v>
-      </c>
-      <c r="AA12">
-        <v>6.3249E-2</v>
-      </c>
-      <c r="AB12">
-        <v>-2.0928E-5</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>298</v>
-      </c>
-      <c r="AE12">
-        <v>1500</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>18.015000000000001</v>
-      </c>
-      <c r="C13">
-        <v>373.2</v>
-      </c>
-      <c r="D13">
-        <v>40.796060811451134</v>
-      </c>
-      <c r="E13">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="F13">
-        <v>647.1</v>
-      </c>
-      <c r="G13">
-        <v>220.55</v>
-      </c>
-      <c r="H13">
-        <v>55.9</v>
-      </c>
-      <c r="I13">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="J13">
-        <v>73.649000000000001</v>
-      </c>
-      <c r="K13">
-        <v>-7258.2</v>
-      </c>
-      <c r="L13">
-        <v>-7.3037000000000001</v>
-      </c>
-      <c r="M13">
-        <v>4.1652999999999997E-6</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>273.16000000000003</v>
-      </c>
-      <c r="P13">
-        <v>647.096</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>276370</v>
-      </c>
-      <c r="S13">
-        <v>-2090.1</v>
-      </c>
-      <c r="T13">
-        <v>8.125</v>
-      </c>
-      <c r="U13">
-        <v>-1.4116E-2</v>
-      </c>
-      <c r="V13">
-        <v>9.3701000000000003E-6</v>
-      </c>
-      <c r="W13">
-        <v>273.16000000000003</v>
-      </c>
-      <c r="X13">
-        <v>533.15</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>3.47</v>
-      </c>
-      <c r="AA13">
-        <v>1.4499999999999999E-3</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>12100</v>
-      </c>
-      <c r="AD13">
-        <v>298</v>
-      </c>
-      <c r="AE13">
-        <v>2000</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>28.013999999999999</v>
-      </c>
-      <c r="C14">
-        <v>77.3</v>
-      </c>
-      <c r="D14">
-        <v>5.5699118113163619</v>
-      </c>
-      <c r="E14">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>126.2</v>
-      </c>
-      <c r="G14">
-        <v>34</v>
-      </c>
-      <c r="H14">
-        <v>89.2</v>
-      </c>
-      <c r="I14">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J14">
-        <v>58.281999999999996</v>
-      </c>
-      <c r="K14">
-        <v>-1084.0999999999999</v>
-      </c>
-      <c r="L14">
-        <v>-8.3143999999999991</v>
-      </c>
-      <c r="M14">
-        <v>4.4127E-2</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>63.15</v>
-      </c>
-      <c r="P14">
-        <v>126.2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>281970</v>
-      </c>
-      <c r="S14">
-        <v>-12281</v>
-      </c>
-      <c r="T14">
-        <v>248</v>
-      </c>
-      <c r="U14">
-        <v>-2.2181999999999999</v>
-      </c>
-      <c r="V14">
-        <v>7.4901999999999998E-3</v>
-      </c>
-      <c r="W14">
-        <v>63.15</v>
-      </c>
-      <c r="X14">
-        <v>0.55930000000000002</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>3.28</v>
-      </c>
-      <c r="AA14">
-        <v>5.9299999999999999E-4</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>4000</v>
-      </c>
-      <c r="AD14">
-        <v>298</v>
-      </c>
-      <c r="AE14">
-        <v>2000</v>
-      </c>
-      <c r="AF14">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>

--- a/IO/Data.xlsx
+++ b/IO/Data.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Correlations" sheetId="5" r:id="rId1"/>
     <sheet name="Correlation Constants" sheetId="3" r:id="rId2"/>
     <sheet name="Species Data" sheetId="1" r:id="rId3"/>
-    <sheet name="Constants" sheetId="4" r:id="rId4"/>
-    <sheet name="Input" sheetId="6" r:id="rId5"/>
+    <sheet name="Species" sheetId="4" r:id="rId4"/>
+    <sheet name="SubGroups" sheetId="7" r:id="rId5"/>
+    <sheet name="InteractionParameters" sheetId="8" r:id="rId6"/>
+    <sheet name="Input" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Tref">'Species Data'!$AS$1</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
   <si>
     <t>Species</t>
   </si>
@@ -520,33 +522,6 @@
     <t>Component</t>
   </si>
   <si>
-    <t>Molecular Weight, M (g/mol)</t>
-  </si>
-  <si>
-    <t>Normal Boiling Point, Tb (K)</t>
-  </si>
-  <si>
-    <t>Enthalpy of Vaporization, λb (kJ/mol)</t>
-  </si>
-  <si>
-    <t>Accentric Factor, ω</t>
-  </si>
-  <si>
-    <t>Critical Temperature, Tc (K)</t>
-  </si>
-  <si>
-    <t>Critical Pressure, Pc (bar)</t>
-  </si>
-  <si>
-    <t>Critical Molar Volume, Vc (mL/mol)</t>
-  </si>
-  <si>
-    <t>Critical Compressibility Factor, Zc</t>
-  </si>
-  <si>
-    <t>Vapour Pressure Correlation Constants, C1</t>
-  </si>
-  <si>
     <t>Temperature (K): Min</t>
   </si>
   <si>
@@ -554,6 +529,66 @@
   </si>
   <si>
     <t>Vapour Heat Capacity Correlation Constants: C1</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Qk</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Molecular Weight M (g/mol)</t>
+  </si>
+  <si>
+    <t>Normal Boiling Point Tb (K)</t>
+  </si>
+  <si>
+    <t>Enthalpy of Vaporization λb (kJ/mol)</t>
+  </si>
+  <si>
+    <t>Accentric Factor ω</t>
+  </si>
+  <si>
+    <t>Critical Temperature Tc (K)</t>
+  </si>
+  <si>
+    <t>Critical Pressure Pc (bar)</t>
+  </si>
+  <si>
+    <t>Critical Molar Volume Vc (mL/mol)</t>
+  </si>
+  <si>
+    <t>Critical Compressibility Factor Zc</t>
+  </si>
+  <si>
+    <t>Vapour Pressure Correlation Constants: C1</t>
+  </si>
+  <si>
+    <t>i/j</t>
   </si>
 </sst>
 </file>
@@ -627,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,7 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,9 +730,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -709,6 +740,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,34 +2681,34 @@
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -3231,9 +3265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM10" sqref="BM10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3261,46 +3295,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="29" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
       <c r="AR1" t="s">
         <v>78</v>
       </c>
       <c r="AS1">
-        <v>100</v>
+        <v>184.6</v>
       </c>
       <c r="AT1" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="21" t="s">
         <v>82</v>
       </c>
       <c r="BB1" t="s">
@@ -3323,56 +3357,56 @@
       </c>
     </row>
     <row r="2" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="31" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
       <c r="AR2" t="s">
         <v>64</v>
       </c>
@@ -3391,7 +3425,7 @@
       </c>
     </row>
     <row r="3" spans="2:86" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3418,94 +3452,94 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="26"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="26"/>
+      <c r="Y3" s="25"/>
       <c r="Z3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26" t="s">
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="26"/>
+      <c r="AG3" s="25"/>
       <c r="AH3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26" t="s">
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AO3" s="26"/>
+      <c r="AO3" s="25"/>
       <c r="AP3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AR3" s="27" t="s">
+      <c r="AR3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AY3" s="23" t="s">
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AY3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="23" t="s">
+      <c r="AZ3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="BA3" s="23" t="s">
+      <c r="BA3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="BC3" s="23" t="s">
+      <c r="BC3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="BF3" s="28" t="s">
+      <c r="BF3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="BG3" s="28"/>
-      <c r="BH3" s="28" t="s">
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="BI3" s="28"/>
-      <c r="BJ3" s="23" t="s">
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="BK3" s="23" t="s">
+      <c r="BK3" s="22" t="s">
         <v>92</v>
       </c>
       <c r="BL3" t="s">
@@ -3514,10 +3548,10 @@
       <c r="BM3" t="s">
         <v>99</v>
       </c>
-      <c r="BN3" s="23" t="s">
+      <c r="BN3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="BO3" s="23" t="s">
+      <c r="BO3" s="22" t="s">
         <v>95</v>
       </c>
       <c r="CA3" t="s">
@@ -3534,7 +3568,7 @@
       </c>
     </row>
     <row r="4" spans="2:86" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3752,7 @@
       </c>
     </row>
     <row r="5" spans="2:86" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3839,22 +3873,22 @@
       <c r="AP5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="21" t="s">
+      <c r="AR5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AS5" s="21" t="s">
+      <c r="AS5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AT5" s="21" t="s">
+      <c r="AT5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AU5" s="21" t="s">
+      <c r="AU5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AV5" s="21" t="s">
+      <c r="AV5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AW5" s="21" t="s">
+      <c r="AW5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="BD5">
@@ -3866,42 +3900,42 @@
       </c>
       <c r="BF5">
         <f>(1/1000)*($S$8*(BE5-Tref)+(1/2)*$T$8*(BE5^2-Tref^2)+(1/3)*$U$8*(BE5^3-Tref^3)+(1/4)*$V$8*(BE5^4-Tref^4)+(1/5)*$W$8*(BE5^5-Tref^5))</f>
-        <v>50210.912994763195</v>
+        <v>36297.144622929125</v>
       </c>
       <c r="BG5">
         <f t="shared" ref="BG5:BG19" si="0">(1/1000)*($S$8*($D$8-Tref)+(1/2)*$T$8*($D$8^2-Tref^2)+(1/3)*$U$8*($D$8^3-Tref^3)+(1/4)*$V$8*($D$8^4-Tref^4)+(1/5)*$W$8*($D$8^5-Tref^5))+$E$8*1000+8.314*($AA$8*(BE5-$D$8)+(1/2)*$AB$8*(BE5^2-$D$8^2)+(1/3)*$AC$8*(BE5^3-$D$8^3)-$AD$8*(BE5^-1-$D$8^-1))</f>
-        <v>77341.594053981171</v>
+        <v>63427.825682147108</v>
       </c>
       <c r="BH5">
         <f t="shared" ref="BH5:BH19" si="1">(1/1000)*($S$9*(BE5-Tref)+(1/2)*$T$9*(BE5^2-Tref^2)+(1/3)*$U$9*(BE5^3-Tref^3)+(1/4)*$V$9*(BE5^4-Tref^4)+(1/5)*$W$9*(BE5^5-Tref^5))</f>
-        <v>32747.387295908542</v>
+        <v>27650.284031261697</v>
       </c>
       <c r="BI5">
         <f t="shared" ref="BI5:BI19" si="2">(1/1000)*($S$9*($D$9-Tref)+(1/2)*$T$9*($D$9^2-Tref^2)+(1/3)*$U$9*($D$9^3-Tref^3)+(1/4)*$V$9*($D$9^4-Tref^4)+(1/5)*$W$9*($D$9^5-Tref^5))+$E$9*1000+8.314*($AA$9*(BE5-$D$9)+(1/2)*$AB$9*(BE5^2-$D$9^2)+(1/3)*$AC$9*(BE5^3-$D$9^3)-$AD$9*(BE5^-1-$D$9^-1))</f>
-        <v>61772.128293118287</v>
+        <v>56675.025028471449</v>
       </c>
       <c r="BJ5">
         <f>$BA$8*1*BF5</f>
-        <v>20084.365197905281</v>
+        <v>14518.857849171651</v>
       </c>
       <c r="BK5">
         <f>$BA$9*1*BH5</f>
-        <v>19648.432377545123</v>
+        <v>16590.170418757018</v>
       </c>
       <c r="BL5">
-        <f>-1*(BJ5+BK5)</f>
-        <v>-39732.7975754504</v>
-      </c>
-      <c r="BM5" s="24">
+        <f t="shared" ref="BL5:BL19" si="3">-1*(BJ5+BK5)</f>
+        <v>-31109.028267928668</v>
+      </c>
+      <c r="BM5" s="23">
         <f>$AY$8*$BC$1*BF5+$AY$9*$BC$1*BH5+$AZ$8*$BC$2*BG5+$AZ$9*$BC$2*BI5</f>
-        <v>51968.817535715571</v>
+        <v>43345.078910188407</v>
       </c>
       <c r="BN5">
-        <f>EXP($K$8+$L$8/BE5+$M$8*LN(BE5)+$N$8*BE5^$O$8)/100000</f>
+        <f t="shared" ref="BN5:BN19" si="4">EXP($K$8+$L$8/BE5+$M$8*LN(BE5)+$N$8*BE5^$O$8)/100000</f>
         <v>2.4421228328165951</v>
       </c>
       <c r="BO5">
-        <f>EXP($K$9+$L$9/BE5+$M$9*LN(BE5)+$N$9*BE5^$O$9)/100000</f>
+        <f t="shared" ref="BO5:BO19" si="5">EXP($K$9+$L$9/BE5+$M$9*LN(BE5)+$N$9*BE5^$O$9)/100000</f>
         <v>1.7459004912476954</v>
       </c>
       <c r="BP5">
@@ -3914,23 +3948,23 @@
       </c>
       <c r="BS5">
         <f>(1/1000)*($S$8*(BE5-Tref)+(1/2)*$T$8*(BE5^2-Tref^2)+(1/3)*$U$8*(BE5^3-Tref^3)+(1/4)*$V$8*(BE5^4-Tref^4)+(1/5)*$W$8*(BE5^5-Tref^5))</f>
-        <v>50210.912994763195</v>
+        <v>36297.144622929125</v>
       </c>
       <c r="BT5">
         <f>$S$8*(BE5-Tref)</f>
-        <v>47014577.999999993</v>
+        <v>32453225.999999996</v>
       </c>
       <c r="BU5">
         <f>(1/2)*$T$8*(BE5^2-Tref^2)</f>
-        <v>-11875948.368524998</v>
+        <v>-9663498.1361249983</v>
       </c>
       <c r="BV5">
         <f>(1/3)*$U$8*(BE5^3-Tref^3)</f>
-        <v>15072283.363288205</v>
+        <v>13507416.759054124</v>
       </c>
       <c r="BW5">
         <f>0.001*SUM(BT5:BV5)</f>
-        <v>50210.912994763195</v>
+        <v>36297.144622929125</v>
       </c>
     </row>
     <row r="6" spans="2:86" x14ac:dyDescent="0.25">
@@ -4088,65 +4122,65 @@
       </c>
       <c r="AT6">
         <f>-(1/1000)*G6*((S6^2)*LN(AW6/AV6)+T6*(AW6-AV6)-S6*U6*(AW6^2-AV6^2)-(1/3)*S6*V6*(AW6^3-AV6^3)-(1/12)*(U6^2)*(AW6^4-AV6^4)-(1/10)*U6*V6*(AW6^5-AV6^5)-(1/30)*(V6^2)*(AW6^6-AV6^6))+E6*1000+8.314*(AA6*(Tvalid-D6)+(1/2)*AB6*(Tvalid^2-D6^2)+(1/3)*AC6*(Tvalid^3-D6^3)-AD6*(Tvalid^-1-D6^-1))</f>
-        <v>30084.400291466096</v>
+        <v>24098.664896670809</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU11" si="3">1-Tvalid/G6</f>
+        <f t="shared" ref="AU6:AU11" si="6">1-Tvalid/G6</f>
         <v>-0.22224041925974447</v>
       </c>
       <c r="AV6">
-        <f t="shared" ref="AV6:AV11" si="4">1-Tref/G6</f>
-        <v>0.6724533245987554</v>
+        <f t="shared" ref="AV6:AV11" si="7">1-Tref/G6</f>
+        <v>0.39534883720930236</v>
       </c>
       <c r="AW6">
         <f>1-D6/G6</f>
         <v>0.39534883720930236</v>
       </c>
       <c r="BD6">
-        <f t="shared" ref="BD6:BD7" si="5">BE6-273.15</f>
+        <f t="shared" ref="BD6:BD7" si="8">BE6-273.15</f>
         <v>155.75</v>
       </c>
       <c r="BE6">
         <v>428.9</v>
       </c>
       <c r="BF6">
-        <f t="shared" ref="BF6:BF19" si="6">(1/1000)*($S$8*(BE6-Tref)+(1/2)*$T$8*(BE6^2-Tref^2)+(1/3)*$U$8*(BE6^3-Tref^3)+(1/4)*$V$8*(BE6^4-Tref^4)+(1/5)*$W$8*(BE6^5-Tref^5))</f>
-        <v>63666.309419818805</v>
+        <f t="shared" ref="BF6:BF19" si="9">(1/1000)*($S$8*(BE6-Tref)+(1/2)*$T$8*(BE6^2-Tref^2)+(1/3)*$U$8*(BE6^3-Tref^3)+(1/4)*$V$8*(BE6^4-Tref^4)+(1/5)*$W$8*(BE6^5-Tref^5))</f>
+        <v>49752.541047984734</v>
       </c>
       <c r="BG6">
         <f t="shared" si="0"/>
-        <v>87475.757024280174</v>
+        <v>73561.988652446104</v>
       </c>
       <c r="BH6">
         <f t="shared" si="1"/>
-        <v>44167.997269825457</v>
+        <v>39070.894005178554</v>
       </c>
       <c r="BI6">
         <f t="shared" si="2"/>
-        <v>70169.618187982793</v>
+        <v>65072.514923335955</v>
       </c>
       <c r="BJ6">
-        <f t="shared" ref="BJ6:BJ19" si="7">$BA$8*1*BF6</f>
-        <v>25466.523767927523</v>
+        <f t="shared" ref="BJ6:BJ19" si="10">$BA$8*1*BF6</f>
+        <v>19901.016419193897</v>
       </c>
       <c r="BK6">
-        <f t="shared" ref="BK6:BK19" si="8">$BA$9*1*BH6</f>
-        <v>26500.798361895275</v>
-      </c>
-      <c r="BL6" s="24">
-        <f t="shared" ref="BL6:BL19" si="9">-1*(BJ6+BK6)</f>
-        <v>-51967.322129822802</v>
+        <f t="shared" ref="BK6:BK19" si="11">$BA$9*1*BH6</f>
+        <v>23442.536403107133</v>
+      </c>
+      <c r="BL6" s="23">
+        <f t="shared" si="3"/>
+        <v>-43343.552822301033</v>
       </c>
       <c r="BM6">
         <f>$AY$8*$BC$1*BF6+$AY$9*$BC$1*BH6+$AZ$8*$BC$2*BG6+$AZ$9*$BC$2*BI6</f>
-        <v>62833.017437869727</v>
+        <v>54209.278812342549</v>
       </c>
       <c r="BN6">
-        <f t="shared" ref="BN6:BN19" si="10">EXP($K$8+$L$8/BE6+$M$8*LN(BE6)+$N$8*BE6^$O$8)/100000</f>
+        <f t="shared" si="4"/>
         <v>8.2865245079845415</v>
       </c>
       <c r="BO6">
-        <f t="shared" ref="BO6:BO19" si="11">EXP($K$9+$L$9/BE6+$M$9*LN(BE6)+$N$9*BE6^$O$9)/100000</f>
+        <f t="shared" si="5"/>
         <v>6.1935363705249946</v>
       </c>
       <c r="BP6">
@@ -4309,69 +4343,69 @@
       </c>
       <c r="AS7">
         <f>(1/1000)*(S7*(Tvalid-Tref)+(1/2)*T7*(Tvalid^2-Tref^2)+(1/3)*U7*(Tvalid^3-Tref^3)+(1/4)*V7*(Tvalid^4-Tref^4)+(1/5)*W7*(Tvalid^5-Tref^5))</f>
-        <v>42880.139180977021</v>
+        <v>30923.024385809571</v>
       </c>
       <c r="AT7">
         <f>(1/1000)*(S7*(D7-Tref)+(1/2)*T7*(D7^2-Tref^2)+(1/3)*U7*(D7^3-Tref^3)+(1/4)*V7*(D7^4-Tref^4)+(1/5)*W7*(D7^5-Tref^5))+E7*1000+8.314*(AA7*(Tvalid-D7)+(1/2)*AB7*(Tvalid^2-D7^2)+(1/3)*AC7*(Tvalid^3-D7^3)-AD7*(Tvalid^-1-D7^-1))</f>
-        <v>65654.482047438854</v>
+        <v>53697.367252271419</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.20555673834362365</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="4"/>
-        <v>0.78709814775388542</v>
+        <f t="shared" si="7"/>
+        <v>0.60698318075367252</v>
       </c>
       <c r="AW7">
         <f t="shared" ref="AW7:AW11" si="16">1-D7/G7</f>
         <v>0.34170747285501379</v>
       </c>
       <c r="BD7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>91.44</v>
       </c>
       <c r="BE7">
         <v>364.59</v>
       </c>
       <c r="BF7">
-        <f t="shared" si="6"/>
-        <v>48284.309729167253</v>
+        <f t="shared" si="9"/>
+        <v>34370.541357333168</v>
       </c>
       <c r="BG7">
         <f t="shared" si="0"/>
-        <v>75878.620757375291</v>
+        <v>61964.85238554122</v>
       </c>
       <c r="BH7">
         <f t="shared" si="1"/>
-        <v>31171.531711717817</v>
+        <v>26074.428447070943</v>
       </c>
       <c r="BI7">
         <f t="shared" si="2"/>
-        <v>60590.246756083936</v>
+        <v>55493.143491437098</v>
       </c>
       <c r="BJ7">
-        <f t="shared" si="7"/>
-        <v>19313.723891666901</v>
+        <f t="shared" si="10"/>
+        <v>13748.216542933267</v>
       </c>
       <c r="BK7">
-        <f t="shared" si="8"/>
-        <v>18702.91902703069</v>
+        <f t="shared" si="11"/>
+        <v>15644.657068242564</v>
       </c>
       <c r="BL7">
-        <f t="shared" si="9"/>
-        <v>-38016.642918697587</v>
-      </c>
-      <c r="BM7" s="24">
+        <f t="shared" si="3"/>
+        <v>-29392.873611175834</v>
+      </c>
+      <c r="BM7" s="23">
         <f t="shared" ref="BM7:BM19" si="17">$AY$8*$BC$1*BF7+$AY$9*$BC$1*BH7+$AZ$8*$BC$2*BG7+$AZ$9*$BC$2*BI7</f>
-        <v>50437.204625161517</v>
+        <v>41813.465999634347</v>
       </c>
       <c r="BN7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.9528761859911454</v>
       </c>
       <c r="BO7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.381435028827211</v>
       </c>
       <c r="BP7">
@@ -4534,19 +4568,19 @@
       </c>
       <c r="AS8">
         <f>(1/1000)*(S8*(Tvalid-Tref)+(1/2)*T8*(Tvalid^2-Tref^2)+(1/3)*U8*(Tvalid^3-Tref^3)+(1/4)*V8*(Tvalid^4-Tref^4)+(1/5)*W8*(Tvalid^5-Tref^5))</f>
-        <v>50210.912994763195</v>
+        <v>36297.144622929125</v>
       </c>
       <c r="AT8">
         <f>(1/1000)*(S8*(D8-Tref)+(1/2)*T8*(D8^2-Tref^2)+(1/3)*U8*(D8^3-Tref^3)+(1/4)*V8*(D8^4-Tref^4)+(1/5)*W8*(D8^5-Tref^5))+E8*1000+8.314*(AA8*(Tvalid-D8)+(1/2)*AB8*(Tvalid^2-D8^2)+(1/3)*AC8*(Tvalid^3-D8^3)-AD8*(Tvalid^-1-D8^-1))</f>
-        <v>77341.594053981171</v>
+        <v>63427.825682147108</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.26487391646966119</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="4"/>
-        <v>0.80299448384554772</v>
+        <f t="shared" si="7"/>
+        <v>0.63632781717888109</v>
       </c>
       <c r="AW8">
         <f t="shared" si="16"/>
@@ -4563,53 +4597,53 @@
       </c>
       <c r="BB8">
         <f>AY8*$BC$1*AS8</f>
-        <v>10369.407118939509</v>
+        <v>7495.977416093453</v>
       </c>
       <c r="BC8">
         <f>AZ8*$BC$2*AT8</f>
-        <v>14964.014493599132</v>
+        <v>12271.985267625496</v>
       </c>
       <c r="BE8">
         <v>330</v>
       </c>
       <c r="BF8">
-        <f t="shared" si="6"/>
-        <v>40833.344859999997</v>
+        <f t="shared" si="9"/>
+        <v>26919.57648816592</v>
       </c>
       <c r="BG8">
         <f t="shared" si="0"/>
-        <v>70226.072699246521</v>
+        <v>56312.304327412457</v>
       </c>
       <c r="BH8">
         <f t="shared" si="1"/>
-        <v>25158.791250833354</v>
+        <v>20061.68798618648</v>
       </c>
       <c r="BI8">
         <f t="shared" si="2"/>
-        <v>56114.398499295887</v>
+        <v>51017.295234649049</v>
       </c>
       <c r="BJ8">
-        <f t="shared" si="7"/>
-        <v>16333.337943999999</v>
+        <f t="shared" si="10"/>
+        <v>10767.830595266369</v>
       </c>
       <c r="BK8">
-        <f t="shared" si="8"/>
-        <v>15095.274750500012</v>
+        <f t="shared" si="11"/>
+        <v>12037.012791711888</v>
       </c>
       <c r="BL8">
-        <f t="shared" si="9"/>
-        <v>-31428.612694500011</v>
+        <f t="shared" si="3"/>
+        <v>-22804.843386978257</v>
       </c>
       <c r="BM8">
         <f t="shared" si="17"/>
-        <v>44567.097656422891</v>
+        <v>35943.359030895714</v>
       </c>
       <c r="BN8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.68853143101833458</v>
       </c>
       <c r="BO8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.46379192022523785</v>
       </c>
       <c r="BP8">
@@ -4789,19 +4823,19 @@
       </c>
       <c r="AS9">
         <f>(1/1000)*(S9*(Tvalid-Tref)+(1/2)*T9*(Tvalid^2-Tref^2)+(1/3)*U9*(Tvalid^3-Tref^3)+(1/4)*V9*(Tvalid^4-Tref^4)+(1/5)*W9*(Tvalid^5-Tref^5))</f>
-        <v>32747.387295908542</v>
+        <v>27650.284031261697</v>
       </c>
       <c r="AT9">
         <f>(1/1000)*(S9*(D9-Tref)+(1/2)*T9*(D9^2-Tref^2)+(1/3)*U9*(D9^3-Tref^3)+(1/4)*V9*(D9^4-Tref^4)+(1/5)*W9*(D9^5-Tref^5))+E9*1000+8.314*(AA9*(Tvalid-D9)+(1/2)*AB9*(Tvalid^2-D9^2)+(1/3)*AC9*(Tvalid^3-D9^3)-AD9*(Tvalid^-1-D9^-1))</f>
-        <v>61772.128293118287</v>
+        <v>56675.025028471449</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.3259573699421966</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="4"/>
-        <v>0.81936416184971095</v>
+        <f t="shared" si="7"/>
+        <v>0.66654624277456653</v>
       </c>
       <c r="AW9">
         <f t="shared" si="16"/>
@@ -4821,53 +4855,53 @@
       </c>
       <c r="BB9">
         <f>AY9*$BC$1*AS9</f>
-        <v>11765.579549835908</v>
+        <v>9934.2769976037962</v>
       </c>
       <c r="BC9">
         <f>AZ9*$BC$2*AT9</f>
-        <v>14869.816373341015</v>
+        <v>13642.839228865661</v>
       </c>
       <c r="BE9">
         <v>340</v>
       </c>
       <c r="BF9">
-        <f t="shared" si="6"/>
-        <v>42934.773119999998</v>
+        <f t="shared" si="9"/>
+        <v>29021.00474816592</v>
       </c>
       <c r="BG9">
         <f t="shared" si="0"/>
-        <v>71817.152817960523</v>
+        <v>57903.384446126453</v>
       </c>
       <c r="BH9">
         <f t="shared" si="1"/>
-        <v>26843.633280000016</v>
+        <v>21746.530015353161</v>
       </c>
       <c r="BI9">
         <f t="shared" si="2"/>
-        <v>57358.471854107891</v>
+        <v>52261.368589461053</v>
       </c>
       <c r="BJ9">
-        <f t="shared" si="7"/>
-        <v>17173.909248</v>
+        <f t="shared" si="10"/>
+        <v>11608.40189926637</v>
       </c>
       <c r="BK9">
-        <f t="shared" si="8"/>
-        <v>16106.179968000009</v>
+        <f t="shared" si="11"/>
+        <v>13047.918009211897</v>
       </c>
       <c r="BL9">
-        <f t="shared" si="9"/>
-        <v>-33280.089216000008</v>
+        <f t="shared" si="3"/>
+        <v>-24656.319908478268</v>
       </c>
       <c r="BM9">
         <f t="shared" si="17"/>
-        <v>46213.728767934277</v>
+        <v>37589.990142407107</v>
       </c>
       <c r="BN9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.95509057520218321</v>
       </c>
       <c r="BO9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.65295196295764801</v>
       </c>
       <c r="BP9">
@@ -5047,19 +5081,19 @@
       </c>
       <c r="AS10">
         <f>(1/1000)*(S10*(Tvalid-Tref)+(1/2)*T10*(Tvalid^2-Tref^2)+(1/3)*U10*(Tvalid^3-Tref^3)+(1/4)*V10*(Tvalid^4-Tref^4)+(1/5)*W10*(Tvalid^5-Tref^5))</f>
-        <v>23909.468597613795</v>
+        <v>14723.748763494836</v>
       </c>
       <c r="AT10">
         <f>(1/1000)*(S10*(D10-Tref)+(1/2)*T10*(D10^2-Tref^2)+(1/3)*U10*(D10^3-Tref^3)+(1/4)*V10*(D10^4-Tref^4)+(1/5)*W10*(D10^5-Tref^5))+E10*1000+8.314*(AA10*(Tvalid-D10)+(1/2)*AB10*(Tvalid^2-D10^2)+(1/3)*AC10*(Tvalid^3-D10^3)-AD10*(Tvalid^-1-D10^-1))</f>
-        <v>64707.626599378316</v>
+        <v>55521.906765259337</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.42335033225158403</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="4"/>
-        <v>0.84546437953948383</v>
+        <f t="shared" si="7"/>
+        <v>0.71472724462988713</v>
       </c>
       <c r="AW10">
         <f t="shared" si="16"/>
@@ -5069,43 +5103,43 @@
         <v>350</v>
       </c>
       <c r="BF10">
-        <f t="shared" si="6"/>
-        <v>45078.162499999999</v>
+        <f t="shared" si="9"/>
+        <v>31164.394128165921</v>
       </c>
       <c r="BG10">
         <f t="shared" si="0"/>
-        <v>73443.404582042524</v>
+        <v>59529.636210208453</v>
       </c>
       <c r="BH10">
         <f t="shared" si="1"/>
-        <v>28570.315104166686</v>
+        <v>23473.211839519816</v>
       </c>
       <c r="BI10">
         <f t="shared" si="2"/>
-        <v>58643.298740863887</v>
+        <v>53546.19547621705</v>
       </c>
       <c r="BJ10">
-        <f t="shared" si="7"/>
-        <v>18031.264999999999</v>
+        <f t="shared" si="10"/>
+        <v>12465.757651266369</v>
       </c>
       <c r="BK10">
-        <f t="shared" si="8"/>
-        <v>17142.189062500012</v>
+        <f t="shared" si="11"/>
+        <v>14083.927103711889</v>
       </c>
       <c r="BL10">
-        <f t="shared" si="9"/>
-        <v>-35173.454062500008</v>
+        <f t="shared" si="3"/>
+        <v>-26549.684754978258</v>
       </c>
       <c r="BM10">
         <f t="shared" si="17"/>
-        <v>47900.673093966354</v>
+        <v>39276.934468439191</v>
       </c>
       <c r="BN10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.2958116423025616</v>
       </c>
       <c r="BO10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.89874848983338085</v>
       </c>
       <c r="BP10">
@@ -5276,19 +5310,19 @@
       </c>
       <c r="AS11">
         <f>(1/1000)*(S11*(Tvalid-Tref)+(1/2)*T11*(Tvalid^2-Tref^2)+(1/3)*U11*(Tvalid^3-Tref^3)+(1/4)*V11*(Tvalid^4-Tref^4)+(1/5)*W11*(Tvalid^5-Tref^5))</f>
-        <v>3622551.3474948504</v>
+        <v>3591550.0134213697</v>
       </c>
       <c r="AT11">
         <f>(1/1000)*(S11*(D11-Tref)+(1/2)*T11*(D11^2-Tref^2)+(1/3)*U11*(D11^3-Tref^3)+(1/4)*V11*(D11^4-Tref^4)+(1/5)*W11*(D11^5-Tref^5))+E11*1000+8.314*(AA11*(Tvalid-D11)+(1/2)*AB11*(Tvalid^2-D11^2)+(1/3)*AC11*(Tvalid^3-D11^3)-AD11*(Tvalid^-1-D11^-1))</f>
-        <v>12945.950780900417</v>
+        <v>-18055.383292580133</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.9568145800316956</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="4"/>
-        <v>0.20760697305863707</v>
+        <f t="shared" si="7"/>
+        <v>-0.46275752773375589</v>
       </c>
       <c r="AW11">
         <f t="shared" si="16"/>
@@ -5298,43 +5332,43 @@
         <v>360</v>
       </c>
       <c r="BF11">
-        <f t="shared" si="6"/>
-        <v>47265.287680000001</v>
+        <f t="shared" si="9"/>
+        <v>33351.519308165916</v>
       </c>
       <c r="BG11">
         <f t="shared" si="0"/>
-        <v>75104.54879074452</v>
+        <v>61190.780418910457</v>
       </c>
       <c r="BH11">
         <f t="shared" si="1"/>
-        <v>30342.115613333361</v>
+        <v>25245.012348686487</v>
       </c>
       <c r="BI11">
         <f t="shared" si="2"/>
-        <v>59968.531168779889</v>
+        <v>54871.427904133052</v>
       </c>
       <c r="BJ11">
-        <f t="shared" si="7"/>
-        <v>18906.115072000001</v>
+        <f t="shared" si="10"/>
+        <v>13340.607723266367</v>
       </c>
       <c r="BK11">
-        <f t="shared" si="8"/>
-        <v>18205.269368000016</v>
+        <f t="shared" si="11"/>
+        <v>15147.007409211892</v>
       </c>
       <c r="BL11">
-        <f t="shared" si="9"/>
-        <v>-37111.384440000016</v>
+        <f t="shared" si="3"/>
+        <v>-28487.615132478259</v>
       </c>
       <c r="BM11">
         <f t="shared" si="17"/>
-        <v>49629.33739740929</v>
+        <v>41005.598771882127</v>
       </c>
       <c r="BN11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.7235985458784384</v>
       </c>
       <c r="BO11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.2119610469667705</v>
       </c>
       <c r="BP11">
@@ -5356,57 +5390,57 @@
       <c r="Q12" s="5"/>
       <c r="BB12">
         <f>SUM(BB6:BB11)</f>
-        <v>22134.986668775418</v>
+        <v>17430.25441369725</v>
       </c>
       <c r="BC12">
         <f>SUM(BC6:BC11)</f>
-        <v>29833.830866940145</v>
+        <v>25914.824496491157</v>
       </c>
       <c r="BD12">
         <f>-1*SUM(BB12:BC12)</f>
-        <v>-51968.817535715563</v>
+        <v>-43345.078910188407</v>
       </c>
       <c r="BE12">
         <v>372.68799999999999</v>
       </c>
       <c r="BF12">
-        <f t="shared" si="6"/>
-        <v>50106.045427541198</v>
+        <f t="shared" si="9"/>
+        <v>36192.277055707113</v>
       </c>
       <c r="BG12">
         <f t="shared" si="0"/>
-        <v>77261.992322762191</v>
+        <v>63348.223950928121</v>
       </c>
       <c r="BH12">
         <f t="shared" si="1"/>
-        <v>32661.332076720671</v>
+        <v>27564.228812073783</v>
       </c>
       <c r="BI12">
         <f t="shared" si="2"/>
-        <v>61707.597097743572</v>
+        <v>56610.493833096734</v>
       </c>
       <c r="BJ12">
-        <f t="shared" si="7"/>
-        <v>20042.418171016481</v>
+        <f t="shared" si="10"/>
+        <v>14476.910822282845</v>
       </c>
       <c r="BK12">
-        <f t="shared" si="8"/>
-        <v>19596.799246032402</v>
+        <f t="shared" si="11"/>
+        <v>16538.537287244268</v>
       </c>
       <c r="BL12">
-        <f t="shared" si="9"/>
-        <v>-39639.217417048887</v>
+        <f t="shared" si="3"/>
+        <v>-31015.448109527111</v>
       </c>
       <c r="BM12">
         <f t="shared" si="17"/>
-        <v>51885.307137947108</v>
+        <v>43261.56851241993</v>
       </c>
       <c r="BN12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>2.4135480460803733</v>
       </c>
       <c r="BO12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.7245233694209763</v>
       </c>
       <c r="BP12">
@@ -5419,47 +5453,53 @@
       </c>
     </row>
     <row r="13" spans="2:86" x14ac:dyDescent="0.25">
+      <c r="AS13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>115</v>
+      </c>
       <c r="BE13">
         <v>373.72</v>
       </c>
       <c r="BF13">
-        <f t="shared" si="6"/>
-        <v>50340.435796324397</v>
+        <f t="shared" si="9"/>
+        <v>36426.667424490312</v>
       </c>
       <c r="BG13">
         <f t="shared" si="0"/>
-        <v>77439.90470376653</v>
+        <v>63526.136331932452</v>
       </c>
       <c r="BH13">
         <f t="shared" si="1"/>
-        <v>32853.721481946028</v>
+        <v>27756.618217299158</v>
       </c>
       <c r="BI13">
         <f t="shared" si="2"/>
-        <v>61851.861170662414</v>
+        <v>56754.757906015577</v>
       </c>
       <c r="BJ13">
-        <f t="shared" si="7"/>
-        <v>20136.17431852976</v>
+        <f t="shared" si="10"/>
+        <v>14570.666969796126</v>
       </c>
       <c r="BK13">
-        <f t="shared" si="8"/>
-        <v>19712.232889167615</v>
+        <f t="shared" si="11"/>
+        <v>16653.970930379495</v>
       </c>
       <c r="BL13">
-        <f t="shared" si="9"/>
-        <v>-39848.407207697375</v>
+        <f t="shared" si="3"/>
+        <v>-31224.637900175621</v>
       </c>
       <c r="BM13">
         <f t="shared" si="17"/>
-        <v>52071.984695373249</v>
+        <v>43448.246069846078</v>
       </c>
       <c r="BN13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>2.477732375722455</v>
       </c>
       <c r="BO13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.772554290753632</v>
       </c>
       <c r="BP13">
@@ -5478,47 +5518,63 @@
       <c r="G14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
+      <c r="AS14">
+        <f>0.6*59355.99+0.4*30353.46</f>
+        <v>47754.977999999996</v>
+      </c>
+      <c r="AT14">
+        <f>0.6*AT8+0.4*AT6</f>
+        <v>47696.161367956593</v>
+      </c>
+      <c r="AU14">
+        <f>AS14-AT14</f>
+        <v>58.816632043402933</v>
+      </c>
+      <c r="AW14">
+        <f>191.68+273.15</f>
+        <v>464.83</v>
+      </c>
       <c r="BE14">
         <v>390</v>
       </c>
       <c r="BF14">
-        <f t="shared" si="6"/>
-        <v>54106.824820000002</v>
+        <f t="shared" si="9"/>
+        <v>40193.056448165924</v>
       </c>
       <c r="BG14">
         <f t="shared" si="0"/>
-        <v>80294.544077090526</v>
+        <v>66380.775705256456</v>
       </c>
       <c r="BH14">
         <f t="shared" si="1"/>
-        <v>35970.636450833365</v>
+        <v>30873.533186186494</v>
       </c>
       <c r="BI14">
         <f t="shared" si="2"/>
-        <v>64183.18179164789</v>
+        <v>59086.078527001053</v>
       </c>
       <c r="BJ14">
-        <f t="shared" si="7"/>
-        <v>21642.729928000001</v>
+        <f t="shared" si="10"/>
+        <v>16077.22257926637</v>
       </c>
       <c r="BK14">
         <f>$BA$9*1*BH14</f>
-        <v>21582.381870500019</v>
+        <v>18524.119911711896</v>
       </c>
       <c r="BL14">
-        <f t="shared" si="9"/>
-        <v>-43225.111798500016</v>
+        <f t="shared" si="3"/>
+        <v>-34601.342490978263</v>
       </c>
       <c r="BM14">
         <f t="shared" si="17"/>
-        <v>55083.173492783761</v>
+        <v>46459.43486725659</v>
       </c>
       <c r="BN14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>3.6731487619499052</v>
       </c>
       <c r="BO14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.6742401282418489</v>
       </c>
       <c r="BP14">
@@ -5535,43 +5591,43 @@
         <v>400</v>
       </c>
       <c r="BF15">
-        <f t="shared" si="6"/>
-        <v>56486.64</v>
+        <f t="shared" si="9"/>
+        <v>42572.871628165914</v>
       </c>
       <c r="BG15">
         <f t="shared" si="0"/>
-        <v>82092.466056792531</v>
+        <v>68178.697684958461</v>
       </c>
       <c r="BH15">
         <f t="shared" si="1"/>
-        <v>37968.525000000031</v>
+        <v>32871.421735353157</v>
       </c>
       <c r="BI15">
         <f t="shared" si="2"/>
-        <v>65666.556476363898</v>
+        <v>60569.453211717053</v>
       </c>
       <c r="BJ15">
-        <f t="shared" si="7"/>
-        <v>22594.656000000003</v>
+        <f t="shared" si="10"/>
+        <v>17029.148651266365</v>
       </c>
       <c r="BK15">
-        <f t="shared" si="8"/>
-        <v>22781.115000000016</v>
+        <f t="shared" si="11"/>
+        <v>19722.853041211893</v>
       </c>
       <c r="BL15">
-        <f t="shared" si="9"/>
-        <v>-45375.771000000022</v>
+        <f t="shared" si="3"/>
+        <v>-36752.001692478254</v>
       </c>
       <c r="BM15">
         <f t="shared" si="17"/>
-        <v>56997.392923676947</v>
+        <v>48373.65429814977</v>
       </c>
       <c r="BN15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>4.5983698380972093</v>
       </c>
       <c r="BO15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3.3779799441338798</v>
       </c>
       <c r="BP15">
@@ -5588,43 +5644,43 @@
         <v>410</v>
       </c>
       <c r="BF16">
-        <f t="shared" si="6"/>
-        <v>58919.064379999996</v>
+        <f t="shared" si="9"/>
+        <v>45005.296008165918</v>
       </c>
       <c r="BG16">
         <f t="shared" si="0"/>
-        <v>83923.884477374522</v>
+        <v>70010.116105540452</v>
       </c>
       <c r="BH16">
         <f t="shared" si="1"/>
-        <v>40037.5449841667</v>
+        <v>34940.441719519826</v>
       </c>
       <c r="BI16">
         <f t="shared" si="2"/>
-        <v>67188.596748319891</v>
+        <v>62091.493483673054</v>
       </c>
       <c r="BJ16">
-        <f t="shared" si="7"/>
-        <v>23567.625752</v>
+        <f t="shared" si="10"/>
+        <v>18002.11840326637</v>
       </c>
       <c r="BK16">
-        <f t="shared" si="8"/>
-        <v>24022.52699050002</v>
+        <f t="shared" si="11"/>
+        <v>20964.265031711893</v>
       </c>
       <c r="BL16">
-        <f t="shared" si="9"/>
-        <v>-47590.152742500024</v>
+        <f t="shared" si="3"/>
+        <v>-38966.383434978263</v>
       </c>
       <c r="BM16">
         <f t="shared" si="17"/>
-        <v>58963.8218381107</v>
+        <v>50340.08321258353</v>
       </c>
       <c r="BN16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5.6910642572677919</v>
       </c>
       <c r="BO16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>4.2120096610116775</v>
       </c>
       <c r="BP16">
@@ -5641,43 +5697,43 @@
         <v>420</v>
       </c>
       <c r="BF17">
-        <f t="shared" si="6"/>
-        <v>61405.872640000001</v>
+        <f t="shared" si="9"/>
+        <v>47492.104268165916</v>
       </c>
       <c r="BG17">
         <f t="shared" si="0"/>
-        <v>85788.520138088526</v>
+        <v>71874.751766254456</v>
       </c>
       <c r="BH17">
         <f t="shared" si="1"/>
-        <v>42184.822613333374</v>
+        <v>37087.7193486865</v>
       </c>
       <c r="BI17">
         <f t="shared" si="2"/>
-        <v>68748.954616731891</v>
+        <v>63651.851352085054</v>
       </c>
       <c r="BJ17">
-        <f t="shared" si="7"/>
-        <v>24562.349056000003</v>
+        <f t="shared" si="10"/>
+        <v>18996.841707266369</v>
       </c>
       <c r="BK17">
-        <f t="shared" si="8"/>
-        <v>25310.893568000025</v>
+        <f t="shared" si="11"/>
+        <v>22252.631609211898</v>
       </c>
       <c r="BL17">
-        <f t="shared" si="9"/>
-        <v>-49873.242624000028</v>
+        <f t="shared" si="3"/>
+        <v>-41249.473316478266</v>
       </c>
       <c r="BM17">
         <f t="shared" si="17"/>
-        <v>60985.249275646755</v>
+        <v>52361.510650119577</v>
       </c>
       <c r="BN17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>6.9713940464056972</v>
       </c>
       <c r="BO17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>5.1901829801101744</v>
       </c>
       <c r="BP17">
@@ -5694,43 +5750,43 @@
         <v>430</v>
       </c>
       <c r="BF18">
-        <f t="shared" si="6"/>
-        <v>63948.839459999996</v>
+        <f t="shared" si="9"/>
+        <v>50035.071088165925</v>
       </c>
       <c r="BG18">
         <f t="shared" si="0"/>
-        <v>87686.093838186527</v>
+        <v>73772.325466352457</v>
       </c>
       <c r="BH18">
         <f t="shared" si="1"/>
-        <v>44418.125317500024</v>
+        <v>39321.022052853186</v>
       </c>
       <c r="BI18">
         <f t="shared" si="2"/>
-        <v>70347.28209081589</v>
+        <v>65250.178826169053</v>
       </c>
       <c r="BJ18">
-        <f t="shared" si="7"/>
-        <v>25579.535784</v>
+        <f t="shared" si="10"/>
+        <v>20014.028435266373</v>
       </c>
       <c r="BK18">
-        <f t="shared" si="8"/>
-        <v>26650.875190500014</v>
+        <f t="shared" si="11"/>
+        <v>23592.613231711912</v>
       </c>
       <c r="BL18">
-        <f t="shared" si="9"/>
-        <v>-52230.410974500017</v>
+        <f t="shared" si="3"/>
+        <v>-43606.641666978285</v>
       </c>
       <c r="BM18">
         <f t="shared" si="17"/>
-        <v>63064.694655292071</v>
+        <v>54440.956029764915</v>
       </c>
       <c r="BN18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.4614204643975555</v>
       </c>
       <c r="BO18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.3267649334264888</v>
       </c>
       <c r="BP18">
@@ -5747,43 +5803,43 @@
         <v>440</v>
       </c>
       <c r="BF19">
-        <f t="shared" si="6"/>
-        <v>66549.739520000003</v>
+        <f t="shared" si="9"/>
+        <v>52635.971148165918</v>
       </c>
       <c r="BG19">
         <f t="shared" si="0"/>
-        <v>89616.326376920522</v>
+        <v>75702.558005086452</v>
       </c>
       <c r="BH19">
         <f t="shared" si="1"/>
-        <v>46745.861746666713</v>
+        <v>41648.758482019824</v>
       </c>
       <c r="BI19">
         <f t="shared" si="2"/>
-        <v>71983.231179787894</v>
+        <v>66886.127915141056</v>
       </c>
       <c r="BJ19">
-        <f t="shared" si="7"/>
-        <v>26619.895808000001</v>
+        <f t="shared" si="10"/>
+        <v>21054.388459266367</v>
       </c>
       <c r="BK19">
-        <f t="shared" si="8"/>
-        <v>28047.517048000027</v>
+        <f t="shared" si="11"/>
+        <v>24989.255089211892</v>
       </c>
       <c r="BL19">
-        <f t="shared" si="9"/>
-        <v>-54667.412856000024</v>
+        <f t="shared" si="3"/>
+        <v>-46043.643548478256</v>
       </c>
       <c r="BM19">
         <f t="shared" si="17"/>
-        <v>65205.407775498927</v>
+        <v>56581.669149971749</v>
       </c>
       <c r="BN19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10.185446802805812</v>
       </c>
       <c r="BO19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>7.6365215688054739</v>
       </c>
       <c r="BP19">
@@ -5797,11 +5853,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="AR3:AW3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="AI1:AP1"/>
     <mergeCell ref="AA1:AH1"/>
     <mergeCell ref="AA3:AE3"/>
@@ -5811,12 +5868,11 @@
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="AR3:AW3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="K2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5824,873 +5880,953 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="33.875" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="31.875" customWidth="1"/>
-    <col min="9" max="9" width="31.25" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
-    <col min="11" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.875" customWidth="1"/>
-    <col min="16" max="16" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.25" customWidth="1"/>
-    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.625" customWidth="1"/>
-    <col min="24" max="24" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="43.25" customWidth="1"/>
-    <col min="27" max="27" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22" customWidth="1"/>
-    <col min="31" max="32" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="10" max="10" width="31.25" customWidth="1"/>
+    <col min="11" max="11" width="37.625" customWidth="1"/>
+    <col min="12" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.875" customWidth="1"/>
+    <col min="17" max="17" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.25" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.625" customWidth="1"/>
+    <col min="25" max="25" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.25" customWidth="1"/>
+    <col min="28" max="28" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22" customWidth="1"/>
+    <col min="32" max="33" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
       <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+      <c r="AI1">
+        <v>35</v>
+      </c>
+      <c r="AJ1">
+        <v>36</v>
+      </c>
+      <c r="AK1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C3">
+        <v>30.07</v>
+      </c>
+      <c r="D3">
+        <v>184.6</v>
+      </c>
+      <c r="E3">
+        <v>14.624985576079146</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>305.3</v>
+      </c>
+      <c r="H3">
+        <v>48.72</v>
+      </c>
+      <c r="I3">
+        <v>145.5</v>
+      </c>
+      <c r="J3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K3">
+        <v>51.856999999999999</v>
+      </c>
+      <c r="L3">
+        <v>-2598.6999999999998</v>
+      </c>
+      <c r="M3">
+        <v>-5.1283000000000003</v>
+      </c>
+      <c r="N3">
+        <v>1.4912999999999999E-5</v>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="P3">
+        <v>90.35</v>
+      </c>
+      <c r="Q3">
+        <v>305.32</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>44.009</v>
+      </c>
+      <c r="T3">
+        <v>89718</v>
+      </c>
+      <c r="U3">
+        <v>918.77</v>
+      </c>
+      <c r="V3">
+        <v>-1886</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>92</v>
+      </c>
+      <c r="Y3">
+        <v>290</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1.131</v>
+      </c>
+      <c r="AB3">
+        <v>1.9225000000000003E-2</v>
+      </c>
+      <c r="AC3">
+        <v>-5.5609999999999998E-6</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>298</v>
+      </c>
+      <c r="AF3">
+        <v>1500</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="D4">
+        <v>309.2</v>
+      </c>
+      <c r="E4">
+        <v>25.816038463315916</v>
+      </c>
+      <c r="F4">
+        <v>0.252</v>
+      </c>
+      <c r="G4">
+        <v>469.7</v>
+      </c>
+      <c r="H4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I4">
+        <v>313</v>
+      </c>
+      <c r="J4">
+        <v>0.27</v>
+      </c>
+      <c r="K4">
+        <v>78.741</v>
+      </c>
+      <c r="L4">
+        <v>-5420.3</v>
+      </c>
+      <c r="M4">
+        <v>-8.8253000000000004</v>
+      </c>
+      <c r="N4">
+        <v>9.6170999999999998E-6</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>469.7</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>159080</v>
+      </c>
+      <c r="T4">
+        <v>-270.5</v>
+      </c>
+      <c r="U4">
+        <v>0.99536999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>390</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>2.464</v>
+      </c>
+      <c r="AB4">
+        <v>4.5351000000000002E-2</v>
+      </c>
+      <c r="AC4">
+        <v>-1.4110999999999999E-5</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>298</v>
+      </c>
+      <c r="AF4">
+        <v>1500</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>86.177000000000007</v>
+      </c>
+      <c r="D5">
+        <v>341.9</v>
+      </c>
+      <c r="E5">
+        <v>28.784708692638056</v>
+      </c>
+      <c r="F5">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G5">
+        <v>507.6</v>
+      </c>
+      <c r="H5">
+        <v>30.25</v>
+      </c>
+      <c r="I5">
+        <v>371</v>
+      </c>
+      <c r="J5">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K5">
+        <v>104.65</v>
+      </c>
+      <c r="L5">
+        <v>-6995.5</v>
+      </c>
+      <c r="M5">
+        <v>-12.702</v>
+      </c>
+      <c r="N5">
+        <v>1.2381000000000001E-5</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>177.83</v>
+      </c>
+      <c r="Q5">
+        <v>507.6</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>172120</v>
+      </c>
+      <c r="T5">
+        <v>-183.78</v>
+      </c>
+      <c r="U5">
+        <v>0.88734000000000002</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>177.83</v>
+      </c>
+      <c r="Y5">
+        <v>460</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>5.3722000000000006E-2</v>
+      </c>
+      <c r="AC5">
+        <v>-1.6790999999999999E-5</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>298</v>
+      </c>
+      <c r="AF5">
+        <v>1500</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>84.161000000000001</v>
+      </c>
+      <c r="D6">
+        <v>353.9</v>
+      </c>
+      <c r="E6">
+        <v>29.899603719140696</v>
+      </c>
+      <c r="F6">
+        <v>0.21</v>
+      </c>
+      <c r="G6">
+        <v>553.6</v>
+      </c>
+      <c r="H6">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="I6">
+        <v>308</v>
+      </c>
+      <c r="J6">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="K6">
+        <v>51.087000000000003</v>
+      </c>
+      <c r="L6">
+        <v>-5226.3999999999996</v>
+      </c>
+      <c r="M6">
+        <v>-4.2278000000000002</v>
+      </c>
+      <c r="N6">
+        <v>9.7454000000000005E-18</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>279.69</v>
+      </c>
+      <c r="Q6">
+        <v>553.79999999999995</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>-220600</v>
+      </c>
+      <c r="T6">
+        <v>3118.3</v>
+      </c>
+      <c r="U6">
+        <v>-9.4215999999999998</v>
+      </c>
+      <c r="V6">
+        <v>1.0687E-2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>279.69</v>
+      </c>
+      <c r="Y6">
+        <v>400</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>-3.8759999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>6.3249E-2</v>
+      </c>
+      <c r="AC6">
+        <v>-2.0928E-5</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>298</v>
+      </c>
+      <c r="AF6">
+        <v>1500</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>6</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="C7">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D7">
+        <v>373.2</v>
+      </c>
+      <c r="E7">
+        <v>40.796060811451134</v>
+      </c>
+      <c r="F7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G7">
+        <v>647.1</v>
+      </c>
+      <c r="H7">
+        <v>220.55</v>
+      </c>
+      <c r="I7">
+        <v>55.9</v>
+      </c>
+      <c r="J7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K7">
+        <v>73.649000000000001</v>
+      </c>
+      <c r="L7">
+        <v>-7258.2</v>
+      </c>
+      <c r="M7">
+        <v>-7.3037000000000001</v>
+      </c>
+      <c r="N7">
+        <v>4.1652999999999997E-6</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>273.16000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>647.096</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>276370</v>
+      </c>
+      <c r="T7">
+        <v>-2090.1</v>
+      </c>
+      <c r="U7">
+        <v>8.125</v>
+      </c>
+      <c r="V7">
+        <v>-1.4116E-2</v>
+      </c>
+      <c r="W7">
+        <v>9.3701000000000003E-6</v>
+      </c>
+      <c r="X7">
+        <v>273.16000000000003</v>
+      </c>
+      <c r="Y7">
+        <v>533.15</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>3.47</v>
+      </c>
+      <c r="AB7">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>12100</v>
+      </c>
+      <c r="AE7">
+        <v>298</v>
+      </c>
+      <c r="AF7">
+        <v>2000</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-    </row>
-    <row r="3" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>30.07</v>
-      </c>
-      <c r="C4">
-        <v>184.6</v>
-      </c>
-      <c r="D4">
-        <v>14.624985576079146</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>305.3</v>
-      </c>
-      <c r="G4">
-        <v>48.72</v>
-      </c>
-      <c r="H4">
-        <v>145.5</v>
-      </c>
-      <c r="I4">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="J4">
-        <v>51.856999999999999</v>
-      </c>
-      <c r="K4">
-        <v>-2598.6999999999998</v>
-      </c>
-      <c r="L4">
-        <v>-5.1283000000000003</v>
-      </c>
-      <c r="M4">
-        <v>1.4912999999999999E-5</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>90.35</v>
-      </c>
-      <c r="P4">
-        <v>305.32</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>44.009</v>
-      </c>
-      <c r="S4">
-        <v>89718</v>
-      </c>
-      <c r="T4">
-        <v>918.77</v>
-      </c>
-      <c r="U4">
-        <v>-1886</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>92</v>
-      </c>
-      <c r="X4">
-        <v>290</v>
-      </c>
-      <c r="Y4">
+      <c r="C8">
+        <v>28.013999999999999</v>
+      </c>
+      <c r="D8">
+        <v>77.3</v>
+      </c>
+      <c r="E8">
+        <v>5.5699118113163619</v>
+      </c>
+      <c r="F8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>126.2</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>89.2</v>
+      </c>
+      <c r="J8">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K8">
+        <v>58.281999999999996</v>
+      </c>
+      <c r="L8">
+        <v>-1084.0999999999999</v>
+      </c>
+      <c r="M8">
+        <v>-8.3143999999999991</v>
+      </c>
+      <c r="N8">
+        <v>4.4127E-2</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="Z4">
-        <v>1.131</v>
-      </c>
-      <c r="AA4">
-        <v>1.9225000000000003E-2</v>
-      </c>
-      <c r="AB4">
-        <v>-5.5609999999999998E-6</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="P8">
+        <v>63.15</v>
+      </c>
+      <c r="Q8">
+        <v>126.2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>281970</v>
+      </c>
+      <c r="T8">
+        <v>-12281</v>
+      </c>
+      <c r="U8">
+        <v>248</v>
+      </c>
+      <c r="V8">
+        <v>-2.2181999999999999</v>
+      </c>
+      <c r="W8">
+        <v>7.4901999999999998E-3</v>
+      </c>
+      <c r="X8">
+        <v>63.15</v>
+      </c>
+      <c r="Y8">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>3.28</v>
+      </c>
+      <c r="AB8">
+        <v>5.9299999999999999E-4</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>4000</v>
+      </c>
+      <c r="AE8">
         <v>298</v>
       </c>
-      <c r="AE4">
-        <v>1500</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>72.150000000000006</v>
-      </c>
-      <c r="C5">
-        <v>309.2</v>
-      </c>
-      <c r="D5">
-        <v>25.816038463315916</v>
-      </c>
-      <c r="E5">
-        <v>0.252</v>
-      </c>
-      <c r="F5">
-        <v>469.7</v>
-      </c>
-      <c r="G5">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H5">
-        <v>313</v>
-      </c>
-      <c r="I5">
-        <v>0.27</v>
-      </c>
-      <c r="J5">
-        <v>78.741</v>
-      </c>
-      <c r="K5">
-        <v>-5420.3</v>
-      </c>
-      <c r="L5">
-        <v>-8.8253000000000004</v>
-      </c>
-      <c r="M5">
-        <v>9.6170999999999998E-6</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>143.41999999999999</v>
-      </c>
-      <c r="P5">
-        <v>469.7</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>159080</v>
-      </c>
-      <c r="S5">
-        <v>-270.5</v>
-      </c>
-      <c r="T5">
-        <v>0.99536999999999998</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>143.41999999999999</v>
-      </c>
-      <c r="X5">
-        <v>390</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>2.464</v>
-      </c>
-      <c r="AA5">
-        <v>4.5351000000000002E-2</v>
-      </c>
-      <c r="AB5">
-        <v>-1.4110999999999999E-5</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>298</v>
-      </c>
-      <c r="AE5">
-        <v>1500</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>86.177000000000007</v>
-      </c>
-      <c r="C6">
-        <v>341.9</v>
-      </c>
-      <c r="D6">
-        <v>28.784708692638056</v>
-      </c>
-      <c r="E6">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="F6">
-        <v>507.6</v>
-      </c>
-      <c r="G6">
-        <v>30.25</v>
-      </c>
-      <c r="H6">
-        <v>371</v>
-      </c>
-      <c r="I6">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="J6">
-        <v>104.65</v>
-      </c>
-      <c r="K6">
-        <v>-6995.5</v>
-      </c>
-      <c r="L6">
-        <v>-12.702</v>
-      </c>
-      <c r="M6">
-        <v>1.2381000000000001E-5</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>177.83</v>
-      </c>
-      <c r="P6">
-        <v>507.6</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>172120</v>
-      </c>
-      <c r="S6">
-        <v>-183.78</v>
-      </c>
-      <c r="T6">
-        <v>0.88734000000000002</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>177.83</v>
-      </c>
-      <c r="X6">
-        <v>460</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>3.0249999999999999</v>
-      </c>
-      <c r="AA6">
-        <v>5.3722000000000006E-2</v>
-      </c>
-      <c r="AB6">
-        <v>-1.6790999999999999E-5</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>298</v>
-      </c>
-      <c r="AE6">
-        <v>1500</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>84.161000000000001</v>
-      </c>
-      <c r="C7">
-        <v>353.9</v>
-      </c>
-      <c r="D7">
-        <v>29.899603719140696</v>
-      </c>
-      <c r="E7">
-        <v>0.21</v>
-      </c>
-      <c r="F7">
-        <v>553.6</v>
-      </c>
-      <c r="G7">
-        <v>40.729999999999997</v>
-      </c>
-      <c r="H7">
-        <v>308</v>
-      </c>
-      <c r="I7">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J7">
-        <v>51.087000000000003</v>
-      </c>
-      <c r="K7">
-        <v>-5226.3999999999996</v>
-      </c>
-      <c r="L7">
-        <v>-4.2278000000000002</v>
-      </c>
-      <c r="M7">
-        <v>9.7454000000000005E-18</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <v>279.69</v>
-      </c>
-      <c r="P7">
-        <v>553.79999999999995</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>-220600</v>
-      </c>
-      <c r="S7">
-        <v>3118.3</v>
-      </c>
-      <c r="T7">
-        <v>-9.4215999999999998</v>
-      </c>
-      <c r="U7">
-        <v>1.0687E-2</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>279.69</v>
-      </c>
-      <c r="X7">
-        <v>400</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>-3.8759999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>6.3249E-2</v>
-      </c>
-      <c r="AB7">
-        <v>-2.0928E-5</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>298</v>
-      </c>
-      <c r="AE7">
-        <v>1500</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>18.015000000000001</v>
-      </c>
-      <c r="C8">
-        <v>373.2</v>
-      </c>
-      <c r="D8">
-        <v>40.796060811451134</v>
-      </c>
-      <c r="E8">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="F8">
-        <v>647.1</v>
-      </c>
-      <c r="G8">
-        <v>220.55</v>
-      </c>
-      <c r="H8">
-        <v>55.9</v>
-      </c>
-      <c r="I8">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="J8">
-        <v>73.649000000000001</v>
-      </c>
-      <c r="K8">
-        <v>-7258.2</v>
-      </c>
-      <c r="L8">
-        <v>-7.3037000000000001</v>
-      </c>
-      <c r="M8">
-        <v>4.1652999999999997E-6</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>273.16000000000003</v>
-      </c>
-      <c r="P8">
-        <v>647.096</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>276370</v>
-      </c>
-      <c r="S8">
-        <v>-2090.1</v>
-      </c>
-      <c r="T8">
-        <v>8.125</v>
-      </c>
-      <c r="U8">
-        <v>-1.4116E-2</v>
-      </c>
-      <c r="V8">
-        <v>9.3701000000000003E-6</v>
-      </c>
-      <c r="W8">
-        <v>273.16000000000003</v>
-      </c>
-      <c r="X8">
-        <v>533.15</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>3.47</v>
-      </c>
-      <c r="AA8">
-        <v>1.4499999999999999E-3</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>12100</v>
-      </c>
-      <c r="AD8">
-        <v>298</v>
-      </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>2000</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>28.013999999999999</v>
-      </c>
-      <c r="C9">
-        <v>77.3</v>
-      </c>
-      <c r="D9">
-        <v>5.5699118113163619</v>
-      </c>
-      <c r="E9">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>126.2</v>
-      </c>
-      <c r="G9">
-        <v>34</v>
-      </c>
-      <c r="H9">
-        <v>89.2</v>
-      </c>
-      <c r="I9">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J9">
-        <v>58.281999999999996</v>
-      </c>
-      <c r="K9">
-        <v>-1084.0999999999999</v>
-      </c>
-      <c r="L9">
-        <v>-8.3143999999999991</v>
-      </c>
-      <c r="M9">
-        <v>4.4127E-2</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>63.15</v>
-      </c>
-      <c r="P9">
-        <v>126.2</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>281970</v>
-      </c>
-      <c r="S9">
-        <v>-12281</v>
-      </c>
-      <c r="T9">
-        <v>248</v>
-      </c>
-      <c r="U9">
-        <v>-2.2181999999999999</v>
-      </c>
-      <c r="V9">
-        <v>7.4901999999999998E-3</v>
-      </c>
-      <c r="W9">
-        <v>63.15</v>
-      </c>
-      <c r="X9">
-        <v>0.55930000000000002</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>3.28</v>
-      </c>
-      <c r="AA9">
-        <v>5.9299999999999999E-4</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>4000</v>
-      </c>
-      <c r="AD9">
-        <v>298</v>
-      </c>
-      <c r="AE9">
-        <v>2000</v>
-      </c>
-      <c r="AF9">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
         <v>0</v>
       </c>
     </row>
@@ -6702,10 +6838,206 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.6744</v>
+      </c>
+      <c r="D3">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.92</v>
+      </c>
+      <c r="D5">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>986.5</v>
+      </c>
+      <c r="E3">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>986.5</v>
+      </c>
+      <c r="E4">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>156.4</v>
+      </c>
+      <c r="C5">
+        <v>156.4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>353.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>-229.1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6733,9 +7065,6 @@
       <c r="E1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
@@ -6753,9 +7082,7 @@
       <c r="E2" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="25">
-        <v>0</v>
-      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6764,9 +7091,6 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -6775,9 +7099,6 @@
       <c r="B4" s="16">
         <v>0.4</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -6785,14 +7106,6 @@
       </c>
       <c r="B5" s="16">
         <v>0.6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/IO/Data.xlsx
+++ b/IO/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\eclipse-workspace\CHG4343 - Project - Flash Separation\src\IO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\University\Term 13 - Fall 2017\CHG4343\Project\src\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
   <si>
     <t>Species</t>
   </si>
@@ -336,9 +336,6 @@
     <t>[g/mol]</t>
   </si>
   <si>
-    <t>Mole Fraction</t>
-  </si>
-  <si>
     <t>Form</t>
   </si>
   <si>
@@ -408,108 +405,6 @@
     <t>J/kmol·K</t>
   </si>
   <si>
-    <t>Correlation Validation</t>
-  </si>
-  <si>
-    <t>Psat</t>
-  </si>
-  <si>
-    <t>hL</t>
-  </si>
-  <si>
-    <t>Hv</t>
-  </si>
-  <si>
-    <t>[J/mol]</t>
-  </si>
-  <si>
-    <t>Tref</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>t_ref</t>
-  </si>
-  <si>
-    <t>tb_ref</t>
-  </si>
-  <si>
-    <t>Note: The reference temperature should be below the lowest critical temperature</t>
-  </si>
-  <si>
-    <t>Liquid Mole Fraction</t>
-  </si>
-  <si>
-    <t>Vapour Mole Fraction</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Moles of Liquid</t>
-  </si>
-  <si>
-    <t>Moles of Vapour</t>
-  </si>
-  <si>
-    <t>Overall Mole Fraction</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Hexane Enthalpy</t>
-  </si>
-  <si>
-    <t>Cyclohexane Enthalpy</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>Hexane Vapour Pressure</t>
-  </si>
-  <si>
-    <t>Cyclohexane Vapour Pressure</t>
-  </si>
-  <si>
-    <t>P_BP</t>
-  </si>
-  <si>
-    <t>P_DP</t>
-  </si>
-  <si>
-    <t>Q_feed</t>
-  </si>
-  <si>
-    <t>Q_flash</t>
-  </si>
-  <si>
-    <t>term 1</t>
-  </si>
-  <si>
-    <t>term 2</t>
-  </si>
-  <si>
-    <t>term 3</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>case 2</t>
-  </si>
-  <si>
-    <t>case 3</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>Temperature (°C)</t>
   </si>
   <si>
@@ -519,9 +414,6 @@
     <t>Flowrate (mol/h)</t>
   </si>
   <si>
-    <t>Component</t>
-  </si>
-  <si>
     <t>Temperature (K): Min</t>
   </si>
   <si>
@@ -529,12 +421,6 @@
   </si>
   <si>
     <t>Vapour Heat Capacity Correlation Constants: C1</t>
-  </si>
-  <si>
-    <t>feed</t>
-  </si>
-  <si>
-    <t>flash</t>
   </si>
   <si>
     <t>CH3</t>
@@ -601,7 +487,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,25 +515,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -662,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,14 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -740,9 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2594,7 +2457,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2602,26 +2465,26 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -2629,20 +2492,20 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -2650,7 +2513,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2681,34 +2544,34 @@
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -3263,11 +3126,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CH19"/>
+  <dimension ref="B1:AP14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT14" sqref="AT14"/>
+      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3294,138 +3157,92 @@
     <col min="82" max="82" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="S1" s="28" t="s">
+    <row r="1" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="S1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="27" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AR1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS1">
-        <v>184.6</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC1">
-        <v>0.56579999999999997</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CE1">
-        <v>0.4325</v>
-      </c>
-      <c r="CG1">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="CH1">
-        <v>0.4325</v>
-      </c>
-    </row>
-    <row r="2" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+    </row>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="29" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="26" t="s">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS2" s="19">
-        <v>373.15</v>
-      </c>
-      <c r="AT2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC2">
-        <f>1-BC1</f>
-        <v>0.43420000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="2:86" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="2:42" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3435,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -3452,123 +3269,65 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="25"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="25"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="25"/>
+      <c r="AG3" s="21"/>
       <c r="AH3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25" t="s">
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AO3" s="25"/>
+      <c r="AO3" s="21"/>
       <c r="AP3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AY3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ3" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC3" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO3" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>104</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:86" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3576,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
@@ -3677,82 +3436,9 @@
       <c r="AO4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AR4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW4" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ4" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB4" s="18"/>
-      <c r="BC4">
-        <v>2</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:86" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
+    </row>
+    <row r="5" spans="2:42" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
@@ -3760,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
@@ -3873,101 +3559,8 @@
       <c r="AP5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AR5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS5" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT5" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD5">
-        <f>BE5-273.15</f>
-        <v>100</v>
-      </c>
-      <c r="BE5">
-        <v>373.15</v>
-      </c>
-      <c r="BF5">
-        <f>(1/1000)*($S$8*(BE5-Tref)+(1/2)*$T$8*(BE5^2-Tref^2)+(1/3)*$U$8*(BE5^3-Tref^3)+(1/4)*$V$8*(BE5^4-Tref^4)+(1/5)*$W$8*(BE5^5-Tref^5))</f>
-        <v>36297.144622929125</v>
-      </c>
-      <c r="BG5">
-        <f t="shared" ref="BG5:BG19" si="0">(1/1000)*($S$8*($D$8-Tref)+(1/2)*$T$8*($D$8^2-Tref^2)+(1/3)*$U$8*($D$8^3-Tref^3)+(1/4)*$V$8*($D$8^4-Tref^4)+(1/5)*$W$8*($D$8^5-Tref^5))+$E$8*1000+8.314*($AA$8*(BE5-$D$8)+(1/2)*$AB$8*(BE5^2-$D$8^2)+(1/3)*$AC$8*(BE5^3-$D$8^3)-$AD$8*(BE5^-1-$D$8^-1))</f>
-        <v>63427.825682147108</v>
-      </c>
-      <c r="BH5">
-        <f t="shared" ref="BH5:BH19" si="1">(1/1000)*($S$9*(BE5-Tref)+(1/2)*$T$9*(BE5^2-Tref^2)+(1/3)*$U$9*(BE5^3-Tref^3)+(1/4)*$V$9*(BE5^4-Tref^4)+(1/5)*$W$9*(BE5^5-Tref^5))</f>
-        <v>27650.284031261697</v>
-      </c>
-      <c r="BI5">
-        <f t="shared" ref="BI5:BI19" si="2">(1/1000)*($S$9*($D$9-Tref)+(1/2)*$T$9*($D$9^2-Tref^2)+(1/3)*$U$9*($D$9^3-Tref^3)+(1/4)*$V$9*($D$9^4-Tref^4)+(1/5)*$W$9*($D$9^5-Tref^5))+$E$9*1000+8.314*($AA$9*(BE5-$D$9)+(1/2)*$AB$9*(BE5^2-$D$9^2)+(1/3)*$AC$9*(BE5^3-$D$9^3)-$AD$9*(BE5^-1-$D$9^-1))</f>
-        <v>56675.025028471449</v>
-      </c>
-      <c r="BJ5">
-        <f>$BA$8*1*BF5</f>
-        <v>14518.857849171651</v>
-      </c>
-      <c r="BK5">
-        <f>$BA$9*1*BH5</f>
-        <v>16590.170418757018</v>
-      </c>
-      <c r="BL5">
-        <f t="shared" ref="BL5:BL19" si="3">-1*(BJ5+BK5)</f>
-        <v>-31109.028267928668</v>
-      </c>
-      <c r="BM5" s="23">
-        <f>$AY$8*$BC$1*BF5+$AY$9*$BC$1*BH5+$AZ$8*$BC$2*BG5+$AZ$9*$BC$2*BI5</f>
-        <v>43345.078910188407</v>
-      </c>
-      <c r="BN5">
-        <f t="shared" ref="BN5:BN19" si="4">EXP($K$8+$L$8/BE5+$M$8*LN(BE5)+$N$8*BE5^$O$8)/100000</f>
-        <v>2.4421228328165951</v>
-      </c>
-      <c r="BO5">
-        <f t="shared" ref="BO5:BO19" si="5">EXP($K$9+$L$9/BE5+$M$9*LN(BE5)+$N$9*BE5^$O$9)/100000</f>
-        <v>1.7459004912476954</v>
-      </c>
-      <c r="BP5">
-        <f>$BA$8*BN5+$BA$9*BO5</f>
-        <v>2.0243894278752554</v>
-      </c>
-      <c r="BQ5">
-        <f>1/($BA$8/BN5+$BA$9/BO5)</f>
-        <v>1.9706214905449928</v>
-      </c>
-      <c r="BS5">
-        <f>(1/1000)*($S$8*(BE5-Tref)+(1/2)*$T$8*(BE5^2-Tref^2)+(1/3)*$U$8*(BE5^3-Tref^3)+(1/4)*$V$8*(BE5^4-Tref^4)+(1/5)*$W$8*(BE5^5-Tref^5))</f>
-        <v>36297.144622929125</v>
-      </c>
-      <c r="BT5">
-        <f>$S$8*(BE5-Tref)</f>
-        <v>32453225.999999996</v>
-      </c>
-      <c r="BU5">
-        <f>(1/2)*$T$8*(BE5^2-Tref^2)</f>
-        <v>-9663498.1361249983</v>
-      </c>
-      <c r="BV5">
-        <f>(1/3)*$U$8*(BE5^3-Tref^3)</f>
-        <v>13507416.759054124</v>
-      </c>
-      <c r="BW5">
-        <f>0.001*SUM(BT5:BV5)</f>
-        <v>36297.144622929125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -4112,87 +3705,8 @@
       <c r="AP6" s="5">
         <v>0</v>
       </c>
-      <c r="AR6">
-        <f>EXP(K6+L6/Tvalid+M6*LN(Tvalid)+N6*Tvalid^O6)/100000</f>
-        <v>161.84812503641797</v>
-      </c>
-      <c r="AS6" t="e">
-        <f>-(1/1000)*G6*((S6^2)*LN(AU6/AV6)+T6*(AU6-AV6)-S6*U6*(AU6^2-AV6^2)-(1/3)*S6*V6*(AU6^3-AV6^3)-(1/12)*(U6^2)*(AU6^4-AV6^4)-(1/10)*U6*V6*(AU6^5-AV6^5)-(1/30)*(V6^2)*(AU6^6-AV6^6))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AT6">
-        <f>-(1/1000)*G6*((S6^2)*LN(AW6/AV6)+T6*(AW6-AV6)-S6*U6*(AW6^2-AV6^2)-(1/3)*S6*V6*(AW6^3-AV6^3)-(1/12)*(U6^2)*(AW6^4-AV6^4)-(1/10)*U6*V6*(AW6^5-AV6^5)-(1/30)*(V6^2)*(AW6^6-AV6^6))+E6*1000+8.314*(AA6*(Tvalid-D6)+(1/2)*AB6*(Tvalid^2-D6^2)+(1/3)*AC6*(Tvalid^3-D6^3)-AD6*(Tvalid^-1-D6^-1))</f>
-        <v>24098.664896670809</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU11" si="6">1-Tvalid/G6</f>
-        <v>-0.22224041925974447</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" ref="AV6:AV11" si="7">1-Tref/G6</f>
-        <v>0.39534883720930236</v>
-      </c>
-      <c r="AW6">
-        <f>1-D6/G6</f>
-        <v>0.39534883720930236</v>
-      </c>
-      <c r="BD6">
-        <f t="shared" ref="BD6:BD7" si="8">BE6-273.15</f>
-        <v>155.75</v>
-      </c>
-      <c r="BE6">
-        <v>428.9</v>
-      </c>
-      <c r="BF6">
-        <f t="shared" ref="BF6:BF19" si="9">(1/1000)*($S$8*(BE6-Tref)+(1/2)*$T$8*(BE6^2-Tref^2)+(1/3)*$U$8*(BE6^3-Tref^3)+(1/4)*$V$8*(BE6^4-Tref^4)+(1/5)*$W$8*(BE6^5-Tref^5))</f>
-        <v>49752.541047984734</v>
-      </c>
-      <c r="BG6">
-        <f t="shared" si="0"/>
-        <v>73561.988652446104</v>
-      </c>
-      <c r="BH6">
-        <f t="shared" si="1"/>
-        <v>39070.894005178554</v>
-      </c>
-      <c r="BI6">
-        <f t="shared" si="2"/>
-        <v>65072.514923335955</v>
-      </c>
-      <c r="BJ6">
-        <f t="shared" ref="BJ6:BJ19" si="10">$BA$8*1*BF6</f>
-        <v>19901.016419193897</v>
-      </c>
-      <c r="BK6">
-        <f t="shared" ref="BK6:BK19" si="11">$BA$9*1*BH6</f>
-        <v>23442.536403107133</v>
-      </c>
-      <c r="BL6" s="23">
-        <f t="shared" si="3"/>
-        <v>-43343.552822301033</v>
-      </c>
-      <c r="BM6">
-        <f>$AY$8*$BC$1*BF6+$AY$9*$BC$1*BH6+$AZ$8*$BC$2*BG6+$AZ$9*$BC$2*BI6</f>
-        <v>54209.278812342549</v>
-      </c>
-      <c r="BN6">
-        <f t="shared" si="4"/>
-        <v>8.2865245079845415</v>
-      </c>
-      <c r="BO6">
-        <f t="shared" si="5"/>
-        <v>6.1935363705249946</v>
-      </c>
-      <c r="BP6">
-        <f t="shared" ref="BP6:BP19" si="12">$BA$8*BN6+$BA$9*BO6</f>
-        <v>7.0307316255088139</v>
-      </c>
-      <c r="BQ6">
-        <f t="shared" ref="BQ6:BQ19" si="13">1/($BA$8/BN6+$BA$9/BO6)</f>
-        <v>6.8895989400354694</v>
-      </c>
-    </row>
-    <row r="7" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -4203,7 +3717,7 @@
         <v>309.2</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:E11" si="14">(1/1000000)*AI7*(1-D7/G7)^(AJ7+AK7*(D7/G7)+AL7*(D7/G7)^2)</f>
+        <f t="shared" ref="E7:E11" si="0">(1/1000000)*AI7*(1-D7/G7)^(AJ7+AK7*(D7/G7)+AL7*(D7/G7)^2)</f>
         <v>25.816038463315916</v>
       </c>
       <c r="F7" s="13">
@@ -4337,87 +3851,8 @@
       <c r="AP7" s="2">
         <v>0</v>
       </c>
-      <c r="AR7">
-        <f t="shared" ref="AR7:AR11" si="15">EXP(K7+L7/Tvalid+M7*LN(Tvalid)+N7*Tvalid^O7)/100000</f>
-        <v>5.9187195450387931</v>
-      </c>
-      <c r="AS7">
-        <f>(1/1000)*(S7*(Tvalid-Tref)+(1/2)*T7*(Tvalid^2-Tref^2)+(1/3)*U7*(Tvalid^3-Tref^3)+(1/4)*V7*(Tvalid^4-Tref^4)+(1/5)*W7*(Tvalid^5-Tref^5))</f>
-        <v>30923.024385809571</v>
-      </c>
-      <c r="AT7">
-        <f>(1/1000)*(S7*(D7-Tref)+(1/2)*T7*(D7^2-Tref^2)+(1/3)*U7*(D7^3-Tref^3)+(1/4)*V7*(D7^4-Tref^4)+(1/5)*W7*(D7^5-Tref^5))+E7*1000+8.314*(AA7*(Tvalid-D7)+(1/2)*AB7*(Tvalid^2-D7^2)+(1/3)*AC7*(Tvalid^3-D7^3)-AD7*(Tvalid^-1-D7^-1))</f>
-        <v>53697.367252271419</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="6"/>
-        <v>0.20555673834362365</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="7"/>
-        <v>0.60698318075367252</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" ref="AW7:AW11" si="16">1-D7/G7</f>
-        <v>0.34170747285501379</v>
-      </c>
-      <c r="BD7">
-        <f t="shared" si="8"/>
-        <v>91.44</v>
-      </c>
-      <c r="BE7">
-        <v>364.59</v>
-      </c>
-      <c r="BF7">
-        <f t="shared" si="9"/>
-        <v>34370.541357333168</v>
-      </c>
-      <c r="BG7">
-        <f t="shared" si="0"/>
-        <v>61964.85238554122</v>
-      </c>
-      <c r="BH7">
-        <f t="shared" si="1"/>
-        <v>26074.428447070943</v>
-      </c>
-      <c r="BI7">
-        <f t="shared" si="2"/>
-        <v>55493.143491437098</v>
-      </c>
-      <c r="BJ7">
-        <f t="shared" si="10"/>
-        <v>13748.216542933267</v>
-      </c>
-      <c r="BK7">
-        <f t="shared" si="11"/>
-        <v>15644.657068242564</v>
-      </c>
-      <c r="BL7">
-        <f t="shared" si="3"/>
-        <v>-29392.873611175834</v>
-      </c>
-      <c r="BM7" s="23">
-        <f t="shared" ref="BM7:BM19" si="17">$AY$8*$BC$1*BF7+$AY$9*$BC$1*BH7+$AZ$8*$BC$2*BG7+$AZ$9*$BC$2*BI7</f>
-        <v>41813.465999634347</v>
-      </c>
-      <c r="BN7">
-        <f t="shared" si="4"/>
-        <v>1.9528761859911454</v>
-      </c>
-      <c r="BO7">
-        <f t="shared" si="5"/>
-        <v>1.381435028827211</v>
-      </c>
-      <c r="BP7">
-        <f t="shared" si="12"/>
-        <v>1.6100114916927848</v>
-      </c>
-      <c r="BQ7">
-        <f t="shared" si="13"/>
-        <v>1.5645606933117786</v>
-      </c>
-    </row>
-    <row r="8" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -4428,7 +3863,7 @@
         <v>341.9</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>28.784708692638056</v>
       </c>
       <c r="F8" s="13">
@@ -4562,117 +3997,8 @@
       <c r="AP8" s="2">
         <v>0</v>
       </c>
-      <c r="AR8">
-        <f>EXP(K8+L8/Tvalid+M8*LN(Tvalid)+N8*Tvalid^O8)/100000</f>
-        <v>2.4421228328165951</v>
-      </c>
-      <c r="AS8">
-        <f>(1/1000)*(S8*(Tvalid-Tref)+(1/2)*T8*(Tvalid^2-Tref^2)+(1/3)*U8*(Tvalid^3-Tref^3)+(1/4)*V8*(Tvalid^4-Tref^4)+(1/5)*W8*(Tvalid^5-Tref^5))</f>
-        <v>36297.144622929125</v>
-      </c>
-      <c r="AT8">
-        <f>(1/1000)*(S8*(D8-Tref)+(1/2)*T8*(D8^2-Tref^2)+(1/3)*U8*(D8^3-Tref^3)+(1/4)*V8*(D8^4-Tref^4)+(1/5)*W8*(D8^5-Tref^5))+E8*1000+8.314*(AA8*(Tvalid-D8)+(1/2)*AB8*(Tvalid^2-D8^2)+(1/3)*AC8*(Tvalid^3-D8^3)-AD8*(Tvalid^-1-D8^-1))</f>
-        <v>63427.825682147108</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="6"/>
-        <v>0.26487391646966119</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="7"/>
-        <v>0.63632781717888109</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="16"/>
-        <v>0.32643814026792761</v>
-      </c>
-      <c r="AY8">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="AZ8">
-        <v>0.4456</v>
-      </c>
-      <c r="BA8">
-        <v>0.4</v>
-      </c>
-      <c r="BB8">
-        <f>AY8*$BC$1*AS8</f>
-        <v>7495.977416093453</v>
-      </c>
-      <c r="BC8">
-        <f>AZ8*$BC$2*AT8</f>
-        <v>12271.985267625496</v>
-      </c>
-      <c r="BE8">
-        <v>330</v>
-      </c>
-      <c r="BF8">
-        <f t="shared" si="9"/>
-        <v>26919.57648816592</v>
-      </c>
-      <c r="BG8">
-        <f t="shared" si="0"/>
-        <v>56312.304327412457</v>
-      </c>
-      <c r="BH8">
-        <f t="shared" si="1"/>
-        <v>20061.68798618648</v>
-      </c>
-      <c r="BI8">
-        <f t="shared" si="2"/>
-        <v>51017.295234649049</v>
-      </c>
-      <c r="BJ8">
-        <f t="shared" si="10"/>
-        <v>10767.830595266369</v>
-      </c>
-      <c r="BK8">
-        <f t="shared" si="11"/>
-        <v>12037.012791711888</v>
-      </c>
-      <c r="BL8">
-        <f t="shared" si="3"/>
-        <v>-22804.843386978257</v>
-      </c>
-      <c r="BM8">
-        <f t="shared" si="17"/>
-        <v>35943.359030895714</v>
-      </c>
-      <c r="BN8">
-        <f t="shared" si="4"/>
-        <v>0.68853143101833458</v>
-      </c>
-      <c r="BO8">
-        <f t="shared" si="5"/>
-        <v>0.46379192022523785</v>
-      </c>
-      <c r="BP8">
-        <f t="shared" si="12"/>
-        <v>0.5536877245424765</v>
-      </c>
-      <c r="BQ8">
-        <f t="shared" si="13"/>
-        <v>0.53343853971269117</v>
-      </c>
-      <c r="BZ8">
-        <v>0.4</v>
-      </c>
-      <c r="CA8">
-        <v>1.22106</v>
-      </c>
-      <c r="CB8">
-        <v>1.22279</v>
-      </c>
-      <c r="CD8">
-        <f>BZ8*(CA8-1)/(1+(CA8-1)*$CE$1)</f>
-        <v>8.0707665224743388E-2</v>
-      </c>
-      <c r="CE8">
-        <f>BZ8*(CB8-1)/(1+(CB8-1)*$CE$1)</f>
-        <v>8.1283766526071485E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
@@ -4683,7 +4009,7 @@
         <v>353.9</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>29.899603719140696</v>
       </c>
       <c r="F9" s="13">
@@ -4817,120 +4143,8 @@
       <c r="AP9" s="2">
         <v>0</v>
       </c>
-      <c r="AR9">
-        <f>EXP(K9+L9/Tvalid+M9*LN(Tvalid)+N9*Tvalid^O9)/100000</f>
-        <v>1.7459004912476954</v>
-      </c>
-      <c r="AS9">
-        <f>(1/1000)*(S9*(Tvalid-Tref)+(1/2)*T9*(Tvalid^2-Tref^2)+(1/3)*U9*(Tvalid^3-Tref^3)+(1/4)*V9*(Tvalid^4-Tref^4)+(1/5)*W9*(Tvalid^5-Tref^5))</f>
-        <v>27650.284031261697</v>
-      </c>
-      <c r="AT9">
-        <f>(1/1000)*(S9*(D9-Tref)+(1/2)*T9*(D9^2-Tref^2)+(1/3)*U9*(D9^3-Tref^3)+(1/4)*V9*(D9^4-Tref^4)+(1/5)*W9*(D9^5-Tref^5))+E9*1000+8.314*(AA9*(Tvalid-D9)+(1/2)*AB9*(Tvalid^2-D9^2)+(1/3)*AC9*(Tvalid^3-D9^3)-AD9*(Tvalid^-1-D9^-1))</f>
-        <v>56675.025028471449</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="6"/>
-        <v>0.3259573699421966</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="7"/>
-        <v>0.66654624277456653</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="16"/>
-        <v>0.36072976878612728</v>
-      </c>
-      <c r="AY9">
-        <f>1-AY8</f>
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="AZ9">
-        <f>1-AZ8</f>
-        <v>0.5544</v>
-      </c>
-      <c r="BA9">
-        <f>1-BA8</f>
-        <v>0.6</v>
-      </c>
-      <c r="BB9">
-        <f>AY9*$BC$1*AS9</f>
-        <v>9934.2769976037962</v>
-      </c>
-      <c r="BC9">
-        <f>AZ9*$BC$2*AT9</f>
-        <v>13642.839228865661</v>
-      </c>
-      <c r="BE9">
-        <v>340</v>
-      </c>
-      <c r="BF9">
-        <f t="shared" si="9"/>
-        <v>29021.00474816592</v>
-      </c>
-      <c r="BG9">
-        <f t="shared" si="0"/>
-        <v>57903.384446126453</v>
-      </c>
-      <c r="BH9">
-        <f t="shared" si="1"/>
-        <v>21746.530015353161</v>
-      </c>
-      <c r="BI9">
-        <f t="shared" si="2"/>
-        <v>52261.368589461053</v>
-      </c>
-      <c r="BJ9">
-        <f t="shared" si="10"/>
-        <v>11608.40189926637</v>
-      </c>
-      <c r="BK9">
-        <f t="shared" si="11"/>
-        <v>13047.918009211897</v>
-      </c>
-      <c r="BL9">
-        <f t="shared" si="3"/>
-        <v>-24656.319908478268</v>
-      </c>
-      <c r="BM9">
-        <f t="shared" si="17"/>
-        <v>37589.990142407107</v>
-      </c>
-      <c r="BN9">
-        <f t="shared" si="4"/>
-        <v>0.95509057520218321</v>
-      </c>
-      <c r="BO9">
-        <f t="shared" si="5"/>
-        <v>0.65295196295764801</v>
-      </c>
-      <c r="BP9">
-        <f t="shared" si="12"/>
-        <v>0.77380740785546209</v>
-      </c>
-      <c r="BQ9">
-        <f t="shared" si="13"/>
-        <v>0.74754495852156821</v>
-      </c>
-      <c r="BZ9">
-        <v>0.6</v>
-      </c>
-      <c r="CA9">
-        <v>0.87295</v>
-      </c>
-      <c r="CB9">
-        <v>0.87424000000000002</v>
-      </c>
-      <c r="CD9">
-        <f>BZ9*(CA9-1)/(1+(CA9-1)*$CE$1)</f>
-        <v>-8.0662324131491853E-2</v>
-      </c>
-      <c r="CE9">
-        <f>BZ9*(CB9-1)/(1+(CB9-1)*$CE$1)</f>
-        <v>-7.979621171038169E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4941,7 +4155,7 @@
         <v>373.2</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>40.796060811451134</v>
       </c>
       <c r="F10" s="13">
@@ -5075,91 +4289,8 @@
       <c r="AP10" s="2">
         <v>0</v>
       </c>
-      <c r="AR10">
-        <f t="shared" si="15"/>
-        <v>1.0126056298096628</v>
-      </c>
-      <c r="AS10">
-        <f>(1/1000)*(S10*(Tvalid-Tref)+(1/2)*T10*(Tvalid^2-Tref^2)+(1/3)*U10*(Tvalid^3-Tref^3)+(1/4)*V10*(Tvalid^4-Tref^4)+(1/5)*W10*(Tvalid^5-Tref^5))</f>
-        <v>14723.748763494836</v>
-      </c>
-      <c r="AT10">
-        <f>(1/1000)*(S10*(D10-Tref)+(1/2)*T10*(D10^2-Tref^2)+(1/3)*U10*(D10^3-Tref^3)+(1/4)*V10*(D10^4-Tref^4)+(1/5)*W10*(D10^5-Tref^5))+E10*1000+8.314*(AA10*(Tvalid-D10)+(1/2)*AB10*(Tvalid^2-D10^2)+(1/3)*AC10*(Tvalid^3-D10^3)-AD10*(Tvalid^-1-D10^-1))</f>
-        <v>55521.906765259337</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="6"/>
-        <v>0.42335033225158403</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="7"/>
-        <v>0.71472724462988713</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="16"/>
-        <v>0.42327306444135382</v>
-      </c>
-      <c r="BE10">
-        <v>350</v>
-      </c>
-      <c r="BF10">
-        <f t="shared" si="9"/>
-        <v>31164.394128165921</v>
-      </c>
-      <c r="BG10">
-        <f t="shared" si="0"/>
-        <v>59529.636210208453</v>
-      </c>
-      <c r="BH10">
-        <f t="shared" si="1"/>
-        <v>23473.211839519816</v>
-      </c>
-      <c r="BI10">
-        <f t="shared" si="2"/>
-        <v>53546.19547621705</v>
-      </c>
-      <c r="BJ10">
-        <f t="shared" si="10"/>
-        <v>12465.757651266369</v>
-      </c>
-      <c r="BK10">
-        <f t="shared" si="11"/>
-        <v>14083.927103711889</v>
-      </c>
-      <c r="BL10">
-        <f t="shared" si="3"/>
-        <v>-26549.684754978258</v>
-      </c>
-      <c r="BM10">
-        <f t="shared" si="17"/>
-        <v>39276.934468439191</v>
-      </c>
-      <c r="BN10">
-        <f t="shared" si="4"/>
-        <v>1.2958116423025616</v>
-      </c>
-      <c r="BO10">
-        <f t="shared" si="5"/>
-        <v>0.89874848983338085</v>
-      </c>
-      <c r="BP10">
-        <f t="shared" si="12"/>
-        <v>1.0575737508210532</v>
-      </c>
-      <c r="BQ10">
-        <f t="shared" si="13"/>
-        <v>1.0242943765791694</v>
-      </c>
-      <c r="CD10">
-        <f>SUM(CD8:CD9)</f>
-        <v>4.5341093251535791E-5</v>
-      </c>
-      <c r="CE10">
-        <f>SUM(CE8:CE9)</f>
-        <v>1.4875548156897955E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5170,7 +4301,7 @@
         <v>77.3</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>5.5699118113163619</v>
       </c>
       <c r="F11" s="13">
@@ -5304,83 +4435,8 @@
       <c r="AP11" s="2">
         <v>0</v>
       </c>
-      <c r="AR11">
-        <f t="shared" si="15"/>
-        <v>65649.421876437118</v>
-      </c>
-      <c r="AS11">
-        <f>(1/1000)*(S11*(Tvalid-Tref)+(1/2)*T11*(Tvalid^2-Tref^2)+(1/3)*U11*(Tvalid^3-Tref^3)+(1/4)*V11*(Tvalid^4-Tref^4)+(1/5)*W11*(Tvalid^5-Tref^5))</f>
-        <v>3591550.0134213697</v>
-      </c>
-      <c r="AT11">
-        <f>(1/1000)*(S11*(D11-Tref)+(1/2)*T11*(D11^2-Tref^2)+(1/3)*U11*(D11^3-Tref^3)+(1/4)*V11*(D11^4-Tref^4)+(1/5)*W11*(D11^5-Tref^5))+E11*1000+8.314*(AA11*(Tvalid-D11)+(1/2)*AB11*(Tvalid^2-D11^2)+(1/3)*AC11*(Tvalid^3-D11^3)-AD11*(Tvalid^-1-D11^-1))</f>
-        <v>-18055.383292580133</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="6"/>
-        <v>-1.9568145800316956</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="7"/>
-        <v>-0.46275752773375589</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="16"/>
-        <v>0.38748019017432656</v>
-      </c>
-      <c r="BE11">
-        <v>360</v>
-      </c>
-      <c r="BF11">
-        <f t="shared" si="9"/>
-        <v>33351.519308165916</v>
-      </c>
-      <c r="BG11">
-        <f t="shared" si="0"/>
-        <v>61190.780418910457</v>
-      </c>
-      <c r="BH11">
-        <f t="shared" si="1"/>
-        <v>25245.012348686487</v>
-      </c>
-      <c r="BI11">
-        <f t="shared" si="2"/>
-        <v>54871.427904133052</v>
-      </c>
-      <c r="BJ11">
-        <f t="shared" si="10"/>
-        <v>13340.607723266367</v>
-      </c>
-      <c r="BK11">
-        <f t="shared" si="11"/>
-        <v>15147.007409211892</v>
-      </c>
-      <c r="BL11">
-        <f t="shared" si="3"/>
-        <v>-28487.615132478259</v>
-      </c>
-      <c r="BM11">
-        <f t="shared" si="17"/>
-        <v>41005.598771882127</v>
-      </c>
-      <c r="BN11">
-        <f t="shared" si="4"/>
-        <v>1.7235985458784384</v>
-      </c>
-      <c r="BO11">
-        <f t="shared" si="5"/>
-        <v>1.2119610469667705</v>
-      </c>
-      <c r="BP11">
-        <f t="shared" si="12"/>
-        <v>1.4166160465314377</v>
-      </c>
-      <c r="BQ11">
-        <f t="shared" si="13"/>
-        <v>1.3752547310153422</v>
-      </c>
-    </row>
-    <row r="12" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="14"/>
@@ -5388,477 +4444,22 @@
       <c r="G12" s="2"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="BB12">
-        <f>SUM(BB6:BB11)</f>
-        <v>17430.25441369725</v>
-      </c>
-      <c r="BC12">
-        <f>SUM(BC6:BC11)</f>
-        <v>25914.824496491157</v>
-      </c>
-      <c r="BD12">
-        <f>-1*SUM(BB12:BC12)</f>
-        <v>-43345.078910188407</v>
-      </c>
-      <c r="BE12">
-        <v>372.68799999999999</v>
-      </c>
-      <c r="BF12">
-        <f t="shared" si="9"/>
-        <v>36192.277055707113</v>
-      </c>
-      <c r="BG12">
-        <f t="shared" si="0"/>
-        <v>63348.223950928121</v>
-      </c>
-      <c r="BH12">
-        <f t="shared" si="1"/>
-        <v>27564.228812073783</v>
-      </c>
-      <c r="BI12">
-        <f t="shared" si="2"/>
-        <v>56610.493833096734</v>
-      </c>
-      <c r="BJ12">
-        <f t="shared" si="10"/>
-        <v>14476.910822282845</v>
-      </c>
-      <c r="BK12">
-        <f t="shared" si="11"/>
-        <v>16538.537287244268</v>
-      </c>
-      <c r="BL12">
-        <f t="shared" si="3"/>
-        <v>-31015.448109527111</v>
-      </c>
-      <c r="BM12">
-        <f t="shared" si="17"/>
-        <v>43261.56851241993</v>
-      </c>
-      <c r="BN12">
-        <f t="shared" si="4"/>
-        <v>2.4135480460803733</v>
-      </c>
-      <c r="BO12">
-        <f t="shared" si="5"/>
-        <v>1.7245233694209763</v>
-      </c>
-      <c r="BP12">
-        <f t="shared" si="12"/>
-        <v>2.0001332400847351</v>
-      </c>
-      <c r="BQ12">
-        <f t="shared" si="13"/>
-        <v>1.946838340110026</v>
-      </c>
-    </row>
-    <row r="13" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="AS13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE13">
-        <v>373.72</v>
-      </c>
-      <c r="BF13">
-        <f t="shared" si="9"/>
-        <v>36426.667424490312</v>
-      </c>
-      <c r="BG13">
-        <f t="shared" si="0"/>
-        <v>63526.136331932452</v>
-      </c>
-      <c r="BH13">
-        <f t="shared" si="1"/>
-        <v>27756.618217299158</v>
-      </c>
-      <c r="BI13">
-        <f t="shared" si="2"/>
-        <v>56754.757906015577</v>
-      </c>
-      <c r="BJ13">
-        <f t="shared" si="10"/>
-        <v>14570.666969796126</v>
-      </c>
-      <c r="BK13">
-        <f t="shared" si="11"/>
-        <v>16653.970930379495</v>
-      </c>
-      <c r="BL13">
-        <f t="shared" si="3"/>
-        <v>-31224.637900175621</v>
-      </c>
-      <c r="BM13">
-        <f t="shared" si="17"/>
-        <v>43448.246069846078</v>
-      </c>
-      <c r="BN13">
-        <f t="shared" si="4"/>
-        <v>2.477732375722455</v>
-      </c>
-      <c r="BO13">
-        <f t="shared" si="5"/>
-        <v>1.772554290753632</v>
-      </c>
-      <c r="BP13">
-        <f t="shared" si="12"/>
-        <v>2.0546255247411613</v>
-      </c>
-      <c r="BQ13">
-        <f t="shared" si="13"/>
-        <v>2.0002700191049096</v>
-      </c>
-    </row>
-    <row r="14" spans="2:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="AS14">
-        <f>0.6*59355.99+0.4*30353.46</f>
-        <v>47754.977999999996</v>
-      </c>
-      <c r="AT14">
-        <f>0.6*AT8+0.4*AT6</f>
-        <v>47696.161367956593</v>
-      </c>
-      <c r="AU14">
-        <f>AS14-AT14</f>
-        <v>58.816632043402933</v>
-      </c>
-      <c r="AW14">
-        <f>191.68+273.15</f>
-        <v>464.83</v>
-      </c>
-      <c r="BE14">
-        <v>390</v>
-      </c>
-      <c r="BF14">
-        <f t="shared" si="9"/>
-        <v>40193.056448165924</v>
-      </c>
-      <c r="BG14">
-        <f t="shared" si="0"/>
-        <v>66380.775705256456</v>
-      </c>
-      <c r="BH14">
-        <f t="shared" si="1"/>
-        <v>30873.533186186494</v>
-      </c>
-      <c r="BI14">
-        <f t="shared" si="2"/>
-        <v>59086.078527001053</v>
-      </c>
-      <c r="BJ14">
-        <f t="shared" si="10"/>
-        <v>16077.22257926637</v>
-      </c>
-      <c r="BK14">
-        <f>$BA$9*1*BH14</f>
-        <v>18524.119911711896</v>
-      </c>
-      <c r="BL14">
-        <f t="shared" si="3"/>
-        <v>-34601.342490978263</v>
-      </c>
-      <c r="BM14">
-        <f t="shared" si="17"/>
-        <v>46459.43486725659</v>
-      </c>
-      <c r="BN14">
-        <f t="shared" si="4"/>
-        <v>3.6731487619499052</v>
-      </c>
-      <c r="BO14">
-        <f t="shared" si="5"/>
-        <v>2.6742401282418489</v>
-      </c>
-      <c r="BP14">
-        <f t="shared" si="12"/>
-        <v>3.0738035817250715</v>
-      </c>
-      <c r="BQ14">
-        <f t="shared" si="13"/>
-        <v>3.000649407486879</v>
-      </c>
-    </row>
-    <row r="15" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="BE15">
-        <v>400</v>
-      </c>
-      <c r="BF15">
-        <f t="shared" si="9"/>
-        <v>42572.871628165914</v>
-      </c>
-      <c r="BG15">
-        <f t="shared" si="0"/>
-        <v>68178.697684958461</v>
-      </c>
-      <c r="BH15">
-        <f t="shared" si="1"/>
-        <v>32871.421735353157</v>
-      </c>
-      <c r="BI15">
-        <f t="shared" si="2"/>
-        <v>60569.453211717053</v>
-      </c>
-      <c r="BJ15">
-        <f t="shared" si="10"/>
-        <v>17029.148651266365</v>
-      </c>
-      <c r="BK15">
-        <f t="shared" si="11"/>
-        <v>19722.853041211893</v>
-      </c>
-      <c r="BL15">
-        <f t="shared" si="3"/>
-        <v>-36752.001692478254</v>
-      </c>
-      <c r="BM15">
-        <f t="shared" si="17"/>
-        <v>48373.65429814977</v>
-      </c>
-      <c r="BN15">
-        <f t="shared" si="4"/>
-        <v>4.5983698380972093</v>
-      </c>
-      <c r="BO15">
-        <f t="shared" si="5"/>
-        <v>3.3779799441338798</v>
-      </c>
-      <c r="BP15">
-        <f t="shared" si="12"/>
-        <v>3.8661359017192116</v>
-      </c>
-      <c r="BQ15">
-        <f t="shared" si="13"/>
-        <v>3.7791709970255991</v>
-      </c>
-    </row>
-    <row r="16" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="BE16">
-        <v>410</v>
-      </c>
-      <c r="BF16">
-        <f t="shared" si="9"/>
-        <v>45005.296008165918</v>
-      </c>
-      <c r="BG16">
-        <f t="shared" si="0"/>
-        <v>70010.116105540452</v>
-      </c>
-      <c r="BH16">
-        <f t="shared" si="1"/>
-        <v>34940.441719519826</v>
-      </c>
-      <c r="BI16">
-        <f t="shared" si="2"/>
-        <v>62091.493483673054</v>
-      </c>
-      <c r="BJ16">
-        <f t="shared" si="10"/>
-        <v>18002.11840326637</v>
-      </c>
-      <c r="BK16">
-        <f t="shared" si="11"/>
-        <v>20964.265031711893</v>
-      </c>
-      <c r="BL16">
-        <f t="shared" si="3"/>
-        <v>-38966.383434978263</v>
-      </c>
-      <c r="BM16">
-        <f t="shared" si="17"/>
-        <v>50340.08321258353</v>
-      </c>
-      <c r="BN16">
-        <f t="shared" si="4"/>
-        <v>5.6910642572677919</v>
-      </c>
-      <c r="BO16">
-        <f t="shared" si="5"/>
-        <v>4.2120096610116775</v>
-      </c>
-      <c r="BP16">
-        <f t="shared" si="12"/>
-        <v>4.8036314995141236</v>
-      </c>
-      <c r="BQ16">
-        <f t="shared" si="13"/>
-        <v>4.7006742432938173</v>
-      </c>
-    </row>
-    <row r="17" spans="57:69" x14ac:dyDescent="0.25">
-      <c r="BE17">
-        <v>420</v>
-      </c>
-      <c r="BF17">
-        <f t="shared" si="9"/>
-        <v>47492.104268165916</v>
-      </c>
-      <c r="BG17">
-        <f t="shared" si="0"/>
-        <v>71874.751766254456</v>
-      </c>
-      <c r="BH17">
-        <f t="shared" si="1"/>
-        <v>37087.7193486865</v>
-      </c>
-      <c r="BI17">
-        <f t="shared" si="2"/>
-        <v>63651.851352085054</v>
-      </c>
-      <c r="BJ17">
-        <f t="shared" si="10"/>
-        <v>18996.841707266369</v>
-      </c>
-      <c r="BK17">
-        <f t="shared" si="11"/>
-        <v>22252.631609211898</v>
-      </c>
-      <c r="BL17">
-        <f t="shared" si="3"/>
-        <v>-41249.473316478266</v>
-      </c>
-      <c r="BM17">
-        <f t="shared" si="17"/>
-        <v>52361.510650119577</v>
-      </c>
-      <c r="BN17">
-        <f t="shared" si="4"/>
-        <v>6.9713940464056972</v>
-      </c>
-      <c r="BO17">
-        <f t="shared" si="5"/>
-        <v>5.1901829801101744</v>
-      </c>
-      <c r="BP17">
-        <f t="shared" si="12"/>
-        <v>5.9026674066283835</v>
-      </c>
-      <c r="BQ17">
-        <f t="shared" si="13"/>
-        <v>5.7810086620082366</v>
-      </c>
-    </row>
-    <row r="18" spans="57:69" x14ac:dyDescent="0.25">
-      <c r="BE18">
-        <v>430</v>
-      </c>
-      <c r="BF18">
-        <f t="shared" si="9"/>
-        <v>50035.071088165925</v>
-      </c>
-      <c r="BG18">
-        <f t="shared" si="0"/>
-        <v>73772.325466352457</v>
-      </c>
-      <c r="BH18">
-        <f t="shared" si="1"/>
-        <v>39321.022052853186</v>
-      </c>
-      <c r="BI18">
-        <f t="shared" si="2"/>
-        <v>65250.178826169053</v>
-      </c>
-      <c r="BJ18">
-        <f t="shared" si="10"/>
-        <v>20014.028435266373</v>
-      </c>
-      <c r="BK18">
-        <f t="shared" si="11"/>
-        <v>23592.613231711912</v>
-      </c>
-      <c r="BL18">
-        <f t="shared" si="3"/>
-        <v>-43606.641666978285</v>
-      </c>
-      <c r="BM18">
-        <f t="shared" si="17"/>
-        <v>54440.956029764915</v>
-      </c>
-      <c r="BN18">
-        <f t="shared" si="4"/>
-        <v>8.4614204643975555</v>
-      </c>
-      <c r="BO18">
-        <f t="shared" si="5"/>
-        <v>6.3267649334264888</v>
-      </c>
-      <c r="BP18">
-        <f t="shared" si="12"/>
-        <v>7.1806271458149151</v>
-      </c>
-      <c r="BQ18">
-        <f t="shared" si="13"/>
-        <v>7.0368726084995465</v>
-      </c>
-    </row>
-    <row r="19" spans="57:69" x14ac:dyDescent="0.25">
-      <c r="BE19">
-        <v>440</v>
-      </c>
-      <c r="BF19">
-        <f t="shared" si="9"/>
-        <v>52635.971148165918</v>
-      </c>
-      <c r="BG19">
-        <f t="shared" si="0"/>
-        <v>75702.558005086452</v>
-      </c>
-      <c r="BH19">
-        <f t="shared" si="1"/>
-        <v>41648.758482019824</v>
-      </c>
-      <c r="BI19">
-        <f t="shared" si="2"/>
-        <v>66886.127915141056</v>
-      </c>
-      <c r="BJ19">
-        <f t="shared" si="10"/>
-        <v>21054.388459266367</v>
-      </c>
-      <c r="BK19">
-        <f t="shared" si="11"/>
-        <v>24989.255089211892</v>
-      </c>
-      <c r="BL19">
-        <f t="shared" si="3"/>
-        <v>-46043.643548478256</v>
-      </c>
-      <c r="BM19">
-        <f t="shared" si="17"/>
-        <v>56581.669149971749</v>
-      </c>
-      <c r="BN19">
-        <f t="shared" si="4"/>
-        <v>10.185446802805812</v>
-      </c>
-      <c r="BO19">
-        <f t="shared" si="5"/>
-        <v>7.6365215688054739</v>
-      </c>
-      <c r="BP19">
-        <f t="shared" si="12"/>
-        <v>8.6560916624056095</v>
-      </c>
-      <c r="BQ19">
-        <f t="shared" si="13"/>
-        <v>8.4859732096797913</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AR3:AW3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
+  <mergeCells count="17">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="K2:R2"/>
     <mergeCell ref="AI1:AP1"/>
     <mergeCell ref="AA1:AH1"/>
     <mergeCell ref="AA3:AE3"/>
@@ -5868,11 +4469,9 @@
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6039,112 +4638,112 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
       <c r="P2" s="19" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" t="s">
         <v>59</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>60</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" t="s">
-        <v>62</v>
-      </c>
       <c r="X2" s="19" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s">
         <v>35</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" t="s">
-        <v>61</v>
-      </c>
       <c r="AE2" s="19" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s">
         <v>35</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH2" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
@@ -6848,18 +5447,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6873,7 +5472,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6887,7 +5486,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -6901,7 +5500,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -6923,7 +5522,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6944,24 +5543,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6978,7 +5577,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6995,7 +5594,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>156.4</v>
@@ -7012,7 +5611,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -7034,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7051,19 +5650,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7082,29 +5681,21 @@
       <c r="E2" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+      <c r="A3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="16">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="16">
         <v>0.6</v>
       </c>
     </row>
